--- a/Análisis/listaprecios.xlsx
+++ b/Análisis/listaprecios.xlsx
@@ -1368,514 +1368,514 @@
     <t>db.execSQL("insert into productos values(null,'Coloreti ball','20',0,78,3.9,'5',4,'')");</t>
   </si>
   <si>
-    <t>db.execSQL("insert into productos values(null,'Gomas FINI 500g','125',0,98,0.78,'1',4,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'GometsAritos','160',0,62,0.39,'2x1',4,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Gomatubo x8 DORI','30',0,85,2.83,'5',4,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Gomatubo x8 FLORESTAL','30',0,75,2.5,'4',4,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'FrutillaOlimpo','50',0,118,2.36,'3',4,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mini goma DORI','30',0,96,3.6,'5',4,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Goma Docile OSITO','30',0,60,2,'4',4,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Goma FINI ROLLER','24',0,94,3.91,'5',4,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Goma GOMUTCHO','1',0,0,8,'10',4,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'CHICHE Punta Pallena','16',0,75,4.68,'6',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'AlfajorPlay love y PLAY','16',0,109,6.75,'8',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Top Punta Ballena','12',0,106,8.8,'11',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Play triple  Punta Ballena','10',0,98,9.8,'13',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Surprise Punta Ballena','12',0,170,14.16,'17',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Portezueloclasico','18',0,148,8.22,'10',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Porezuelo Soft','18',0,148,8.22,'10',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Portezuelo Triple','12',0,140,11.66,'14',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Portezuelo Doble dulce de leche','14',0,139.5,9.96,'12',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Portezuelo Extra DL Black Triple','12',0,155,12.5,'16',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'AlfajorNATIVO (Artesanal)','12',0,220,18.33,'23',5,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Nicolox 23g ','30',0,160,5.26,'7',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Tableta GOLDEN ','15',0,128,8.53,'12',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Tableta GAROTO x150gr','12',0,0,53,'0',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Chocolate de taza Alteza 90gr','1',0,0,25,'0',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Bombon COMPLICE','30',0,120,4,'5',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Bombon BOB ESPONJA','50',0,82,1.64,'2',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Batón','30',0,230,7.66,'10',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Baton JAZAM','30',0,110,3.66,'5',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Barra Cereales CEREANOLA','24',0,189,7.88,'10',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Wafle Triangulo','48',0,77,1.6,'2',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Tab Golden chica','20',0,78,3.9,'5',6,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Ticholo Mariola','50',0,88,1.76,'2X5',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Nucita','48',0,76,1.58,'2',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Rapadura','60',0,96,1.6,'2',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Barquillo CH Y DL','60',0,96,1.6,'2',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Barquillo bañado crock roll','30',0,133,4.43,'6',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Palitos Salados (Jam. Ques. Panceta)','1kg',0,135,13.5,'100gr x $18',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mani Artesanal (Con y Sin Sal)','1kg',0,135,13.5,'100gr x $18',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA Bolsa 20gr.','50',0,180,3.6,'5',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA 60gr.','30',0,0,10,'12',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA 200gr.','24',0,0,30,'36',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mani Japonés Dori 100gr.','30',0,0,12.6,'16',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mani C/Chocolate Dori 100gr.','30',0,0,12.6,'16',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mani C/Chocolate Dori 70gr.','30',0,0,10,'13',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mani C/Chocolate COLONIAL x24gr','16',0,144,9,'12',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'SaladitoHorneadoTrofeú','20',0,190,9.5,'12',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Papas KRACHITOS x 20gr. TIRA','6',0,58.2,9.7,'12',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Papas KRACHITOS x 120gr.','1',0,49.2,0,'60',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Combo CHARLY (2 pap. 120g y 2 mani)','1',0,106,0,'126',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Sopladitos de Queso ORES','100grs',0,0,22.5,'28',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Sopladitos de Queso BUBY','210grs',0,0,44.5,'50',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Sopladitis de Queso BUBY','100grs',0,0,22.5,'28',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Papas Pay ORES','500g',0,0,140,'0',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Café SAINT','100',0,114,1.14,'2x3',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Té SAINT','100',0,94,0.94,'2x3',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Colet SAINT x10gr.','50',0,48,0.96,'2x3',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Bracafecito Nescafe','120',0,193,1.6,'2',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Café Aguila Stick','240',0,193,0.8,'1',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mayonesa Uruguay 125cc ','20',0,230,11.5,'15',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mayonesa Uruguay  500gr','15',0,0,38.8,'47',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Arroz Green Chef x1kg','20',0,558,28,'33',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'AceiteOptimo','15',0,825,57,'66',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'AceiteCondesa','15',0,0,33.5,'0',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Pure de papa LIDER x120gr','20',0,0,16.8,'21',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Cereal c/azúcar TORRE NUEVA','1,5kg',0,182,121.33,'18',7,'Precio unit. Por kg')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Cereal Arito Frutado TORRE NUEVA ','  1,5Kg',0,218,14.5,'18',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Levadura Levachef','20',0,118,5.9,'8',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Polvo Royal x30gr','16',0,134.4,8.4,'10',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Extracto de tomate PIZER 60gr','12',0,129,10.75,'14',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Tabletas Raid','24',0,118,4.92,'6',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Insecticida  SAPOLIO','12',0,0,69,'83',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Desodorante Amb. SAPOLIO','12',0,556,48.5,'0',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Desodorante Amb. GLADE ','12',0,552,46,'55',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Lysoform (Original, BB, Floral,avanda)','12',0,0,90,'106',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mr. Musculo Pisos x900ml(tipo Fabuloso)','12',0,374,33,'0',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Mr. Musculo Pisos x1,800lts','8',0,451,58.7,'0',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Encendedor económico RONSON (trnsp)','25',0,212,8.5,'10',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Encendedor BIC','50',0,0,24,'30',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Pilas Everreadi Chicas','4',0,18.6,4.65,'6',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Pilas Everreadi Mediana','24',0,252,10.8,'13',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Pilas Everreadi Grande','24',0,288,12,'15',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Pilas Panasonic Alcalina (AA y AAA)','20',0,243,12.15,'16',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Pilas Panasonic chica','4',0,309,20.6,'7',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Pilas Panasonic Grande (com)','24',0,336,14,'17',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Pilas Alcalina Grande POLAROID ','2',0,120,60,'75',7,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'WaflesMY BIT','30',0,300,10.9,'13',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'GalletitaRellena EURO','30',0,240,8.3,'10',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Galletita Rellena Zabet x4 tubos','1',0,0,31,'0',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Isabela Integral x3 400grs','20',0,640,33.5,'40',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Isabela Sal y Agua x3','20',0,0,33,'41',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'IasabelaMaicena x3','20',0,0,33,'41',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Isabela Maria x3','20',0,0,33,'41',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Maria VITORIA 100g','34',0,0,9,'12',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'GalletaNinffa x2 (370gr)','20',0,0,25,'30',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Galleta ORQUIDEA x400gr','20',0,0,20,'0',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Galleta Surtida Don Paolo 350grs','14',0,365,26,'33',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'GalletaPepasFatay350grs','16',0,560,35,'44',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Galleta Chips Festiva 350gr Chispas ch','1',0,0,35,'44',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Galleta Surtida Festiva 350gr','1',0,0,32,'0',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'ZezePlantillas (Vainill, Choc, Limon)','18',0,530,33,'40',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Zeze Luna (tipoPanina)','15',0,403,30,'38',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Palitos ZABET ','40',0,548,15,'20',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Galletita NATIVO 80gr','1',0,0,16,'20',8,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Jugo BIG C 250ml','27',0,283.5,10.5,'13',9,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Jugo BIG C 1L','12',0,0,38,'46',9,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'JugoRinde 2','20',0,235,11.75,'15',9,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'JugoFoky','20',0,156,7.8,'10',9,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Perifar 400','8',0,0,30,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Perifar 600','8',0,0,40,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Perifar Flex','8',0,0,56,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Perifar Niño','10',0,0,41,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Perifar Grip','8',0,0,61,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Perifar Fem','8',0,0,52,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'PerifarMigra','8',0,0,77,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'PerifarEspasmo','8',0,0,80,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Perifar Grip Soluble','30',0,0,23,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Perifar 600 C/Blanda','10',0,0,70,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Aspirina','10',0,0,30,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Aspirina Fuerte','10',0,0,30,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Aspirina C','24',0,0,19.5,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Aspirina CC','24',0,0,19.5,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Aspirineta','7',0,0,35,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Cardioaspirina','5',0,0,49,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Zolben','8',0,0,39,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Novemina','25',0,0,29,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Novemina Flex','8',0,0,55,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Negatos','10',0,0,65,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Dorixina','10',0,0,72,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Plidex','20',0,0,120,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Sertal Compuesto','10',0,0,138,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'BioGrip Soluble','1',0,0,21.5,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Uvasal','12',0,0,9,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Alikal','12',0,130,11,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Yasta','24',0,276,12.5,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'ACF 4 Comprimido','8',0,0,53,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'ACF – C ','30',0,450,15,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Borweb','10',0,0,62,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Ernex','5',0,0,32,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'IBUMIDOL rapidaaccion','10',0,0,54,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'IBUMIDOL PLUS rapidaaccion','10',0,0,56,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Actrón 200','10',0,0,36,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Actrón 400','10',0,0,55,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Actrón 600','10',0,0,87,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Omeprazol','6',0,0,45,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Omepracid','10',0,0,80,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Tabcin Caliente','20',0,0,20.5,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Bisal','25',0,0,30,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Dolex (Paracetamol 650mg)','8',0,0,32,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Sinutabcomp.','12',0,0,90,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'','1',0,0,0,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'PANTENE shamp y acond. (tira)','24',0,98,4.08,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Head and Shoulder´s ','24',0,98,4.08,'6',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Pañuelo Elite','10',0,58,5.8,'8',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Curitas Ready-PLAST','80',0,130,1.63,'2',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Azufre','50',0,96,1.92,'3',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Des. Speed Stick mini (HyM)','6',0,186,31,'39',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Prestobarbaazul x24+4A','28',0,693,24.75,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Prestobarba triple hoja 10+2','12',0,450,37.5,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Shick Exacta','1',0,0,18,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Jabón de tocador SENSUS','1',0,0,14.6,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Jabón de tocador ASTRAL','1',0,0,19,'0',10,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Dulce ½ kg','1',0,0,38,'46',11,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Dulce 1 kg','1',0,0,66,'79',11,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Dulce 3 ½ kg','1',0,0,205,'70 el kg',11,'p. unit. 54.4/k')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Dulce 5 kg','1',0,0,290,'70 el kg',11,'p. unit. 58/k')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Dulce REPOSTERO','1',0,0,300,'75 el kg',11,'p. unit. 60/k')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Muzzarella (4kg aprox.)','1',0,0,168,'22',11,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Oregano','1 kg.',0,194,0,'0',12,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Adobo','1 kg.',0,155,0,'0',12,'')");</t>
-  </si>
-  <si>
-    <t>db.execSQL("insert into productos values(null,'Ajo y Perejil','1 kg.',0,185,0,'0',12,'')");</t>
+    <t>db.execSQL("insert into productos values(null,'Gomas FINI 500g','125',0,98,0.78,'1',5,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'GometsAritos','160',0,62,0.39,'2x1',5,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Gomatubo x8 DORI','30',0,85,2.83,'5',5,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Gomatubo x8 FLORESTAL','30',0,75,2.5,'4',5,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'FrutillaOlimpo','50',0,118,2.36,'3',5,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mini goma DORI','30',0,96,3.6,'5',5,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Goma Docile OSITO','30',0,60,2,'4',5,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Goma FINI ROLLER','24',0,94,3.91,'5',5,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Goma GOMUTCHO','1',0,0,8,'10',5,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'CHICHE Punta Pallena','16',0,75,4.68,'6',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'AlfajorPlay love y PLAY','16',0,109,6.75,'8',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Top Punta Ballena','12',0,106,8.8,'11',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Play triple  Punta Ballena','10',0,98,9.8,'13',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Surprise Punta Ballena','12',0,170,14.16,'17',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Portezueloclasico','18',0,148,8.22,'10',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Porezuelo Soft','18',0,148,8.22,'10',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Portezuelo Triple','12',0,140,11.66,'14',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Portezuelo Doble dulce de leche','14',0,139.5,9.96,'12',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Portezuelo Extra DL Black Triple','12',0,155,12.5,'16',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'AlfajorNATIVO (Artesanal)','12',0,220,18.33,'23',6,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Nicolox 23g ','30',0,160,5.26,'7',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Tableta GOLDEN ','15',0,128,8.53,'12',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Tableta GAROTO x150gr','12',0,0,53,'0',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Chocolate de taza Alteza 90gr','1',0,0,25,'0',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Bombon COMPLICE','30',0,120,4,'5',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Bombon BOB ESPONJA','50',0,82,1.64,'2',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Batón','30',0,230,7.66,'10',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Baton JAZAM','30',0,110,3.66,'5',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Barra Cereales CEREANOLA','24',0,189,7.88,'10',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Wafle Triangulo','48',0,77,1.6,'2',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Tab Golden chica','20',0,78,3.9,'5',7,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Ticholo Mariola','50',0,88,1.76,'2X5',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Nucita','48',0,76,1.58,'2',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Rapadura','60',0,96,1.6,'2',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Barquillo CH Y DL','60',0,96,1.6,'2',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Barquillo bañado crock roll','30',0,133,4.43,'6',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Palitos Salados (Jam. Ques. Panceta)','1kg',0,135,13.5,'100gr x $18',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mani Artesanal (Con y Sin Sal)','1kg',0,135,13.5,'100gr x $18',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA Bolsa 20gr.','50',0,180,3.6,'5',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA 60gr.','30',0,0,10,'12',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA 200gr.','24',0,0,30,'36',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mani Japonés Dori 100gr.','30',0,0,12.6,'16',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mani C/Chocolate Dori 100gr.','30',0,0,12.6,'16',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mani C/Chocolate Dori 70gr.','30',0,0,10,'13',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mani C/Chocolate COLONIAL x24gr','16',0,144,9,'12',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'SaladitoHorneadoTrofeú','20',0,190,9.5,'12',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Papas KRACHITOS x 20gr. TIRA','6',0,58.2,9.7,'12',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Papas KRACHITOS x 120gr.','1',0,49.2,0,'60',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Combo CHARLY (2 pap. 120g y 2 mani)','1',0,106,0,'126',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Sopladitos de Queso ORES','100grs',0,0,22.5,'28',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Sopladitos de Queso BUBY','210grs',0,0,44.5,'50',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Sopladitis de Queso BUBY','100grs',0,0,22.5,'28',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Papas Pay ORES','500g',0,0,140,'0',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Café SAINT','100',0,114,1.14,'2x3',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Té SAINT','100',0,94,0.94,'2x3',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Colet SAINT x10gr.','50',0,48,0.96,'2x3',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Bracafecito Nescafe','120',0,193,1.6,'2',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Café Aguila Stick','240',0,193,0.8,'1',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mayonesa Uruguay 125cc ','20',0,230,11.5,'15',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mayonesa Uruguay  500gr','15',0,0,38.8,'47',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Arroz Green Chef x1kg','20',0,558,28,'33',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'AceiteOptimo','15',0,825,57,'66',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'AceiteCondesa','15',0,0,33.5,'0',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Pure de papa LIDER x120gr','20',0,0,16.8,'21',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Cereal c/azúcar TORRE NUEVA','1,5kg',0,182,121.33,'18',8,'Precio unit. Por kg')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Cereal Arito Frutado TORRE NUEVA ','  1,5Kg',0,218,14.5,'18',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Levadura Levachef','20',0,118,5.9,'8',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Polvo Royal x30gr','16',0,134.4,8.4,'10',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Extracto de tomate PIZER 60gr','12',0,129,10.75,'14',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Tabletas Raid','24',0,118,4.92,'6',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Insecticida  SAPOLIO','12',0,0,69,'83',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Desodorante Amb. SAPOLIO','12',0,556,48.5,'0',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Desodorante Amb. GLADE ','12',0,552,46,'55',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Lysoform (Original, BB, Floral,avanda)','12',0,0,90,'106',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mr. Musculo Pisos x900ml(tipo Fabuloso)','12',0,374,33,'0',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Mr. Musculo Pisos x1,800lts','8',0,451,58.7,'0',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Encendedor económico RONSON (trnsp)','25',0,212,8.5,'10',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Encendedor BIC','50',0,0,24,'30',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Pilas Everreadi Chicas','4',0,18.6,4.65,'6',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Pilas Everreadi Mediana','24',0,252,10.8,'13',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Pilas Everreadi Grande','24',0,288,12,'15',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Pilas Panasonic Alcalina (AA y AAA)','20',0,243,12.15,'16',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Pilas Panasonic chica','4',0,309,20.6,'7',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Pilas Panasonic Grande (com)','24',0,336,14,'17',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Pilas Alcalina Grande POLAROID ','2',0,120,60,'75',8,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'WaflesMY BIT','30',0,300,10.9,'13',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'GalletitaRellena EURO','30',0,240,8.3,'10',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Galletita Rellena Zabet x4 tubos','1',0,0,31,'0',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Isabela Integral x3 400grs','20',0,640,33.5,'40',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Isabela Sal y Agua x3','20',0,0,33,'41',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'IasabelaMaicena x3','20',0,0,33,'41',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Isabela Maria x3','20',0,0,33,'41',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Maria VITORIA 100g','34',0,0,9,'12',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'GalletaNinffa x2 (370gr)','20',0,0,25,'30',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Galleta ORQUIDEA x400gr','20',0,0,20,'0',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Galleta Surtida Don Paolo 350grs','14',0,365,26,'33',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'GalletaPepasFatay350grs','16',0,560,35,'44',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Galleta Chips Festiva 350gr Chispas ch','1',0,0,35,'44',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Galleta Surtida Festiva 350gr','1',0,0,32,'0',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'ZezePlantillas (Vainill, Choc, Limon)','18',0,530,33,'40',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Zeze Luna (tipoPanina)','15',0,403,30,'38',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Palitos ZABET ','40',0,548,15,'20',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Galletita NATIVO 80gr','1',0,0,16,'20',9,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Jugo BIG C 250ml','27',0,283.5,10.5,'13',10,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Jugo BIG C 1L','12',0,0,38,'46',10,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'JugoRinde 2','20',0,235,11.75,'15',10,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'JugoFoky','20',0,156,7.8,'10',10,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Perifar 400','8',0,0,30,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Perifar 600','8',0,0,40,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Perifar Flex','8',0,0,56,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Perifar Niño','10',0,0,41,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Perifar Grip','8',0,0,61,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Perifar Fem','8',0,0,52,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'PerifarMigra','8',0,0,77,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'PerifarEspasmo','8',0,0,80,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Perifar Grip Soluble','30',0,0,23,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Perifar 600 C/Blanda','10',0,0,70,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Aspirina','10',0,0,30,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Aspirina Fuerte','10',0,0,30,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Aspirina C','24',0,0,19.5,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Aspirina CC','24',0,0,19.5,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Aspirineta','7',0,0,35,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Cardioaspirina','5',0,0,49,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Zolben','8',0,0,39,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Novemina','25',0,0,29,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Novemina Flex','8',0,0,55,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Negatos','10',0,0,65,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Dorixina','10',0,0,72,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Plidex','20',0,0,120,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Sertal Compuesto','10',0,0,138,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'BioGrip Soluble','1',0,0,21.5,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Uvasal','12',0,0,9,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Alikal','12',0,130,11,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Yasta','24',0,276,12.5,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'ACF 4 Comprimido','8',0,0,53,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'ACF – C ','30',0,450,15,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Borweb','10',0,0,62,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Ernex','5',0,0,32,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'IBUMIDOL rapidaaccion','10',0,0,54,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'IBUMIDOL PLUS rapidaaccion','10',0,0,56,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Actrón 200','10',0,0,36,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Actrón 400','10',0,0,55,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Actrón 600','10',0,0,87,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Omeprazol','6',0,0,45,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Omepracid','10',0,0,80,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Tabcin Caliente','20',0,0,20.5,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Bisal','25',0,0,30,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Dolex (Paracetamol 650mg)','8',0,0,32,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Sinutabcomp.','12',0,0,90,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'','1',0,0,0,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'PANTENE shamp y acond. (tira)','24',0,98,4.08,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Head and Shoulder´s ','24',0,98,4.08,'6',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Pañuelo Elite','10',0,58,5.8,'8',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Curitas Ready-PLAST','80',0,130,1.63,'2',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Azufre','50',0,96,1.92,'3',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Des. Speed Stick mini (HyM)','6',0,186,31,'39',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Prestobarbaazul x24+4A','28',0,693,24.75,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Prestobarba triple hoja 10+2','12',0,450,37.5,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Shick Exacta','1',0,0,18,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Jabón de tocador SENSUS','1',0,0,14.6,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Jabón de tocador ASTRAL','1',0,0,19,'0',11,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Dulce ½ kg','1',0,0,38,'46',12,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Dulce 1 kg','1',0,0,66,'79',12,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Dulce 3 ½ kg','1',0,0,205,'70 el kg',12,'p. unit. 54.4/k')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Dulce 5 kg','1',0,0,290,'70 el kg',12,'p. unit. 58/k')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Dulce REPOSTERO','1',0,0,300,'75 el kg',12,'p. unit. 60/k')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Muzzarella (4kg aprox.)','1',0,0,168,'22',12,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Oregano','1 kg.',0,194,0,'0',13,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Adobo','1 kg.',0,155,0,'0',13,'')");</t>
+  </si>
+  <si>
+    <t>db.execSQL("insert into productos values(null,'Ajo y Perejil','1 kg.',0,185,0,'0',13,'')");</t>
   </si>
 </sst>
 </file>
@@ -2250,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J434"/>
+  <dimension ref="A1:J433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220:A434"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219:A433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15"/>
@@ -2307,7 +2307,7 @@
         <v>230</v>
       </c>
       <c r="G2" s="1">
-        <f>IF(F2="Caramelos",1,IF(F2="Chicles",2,IF(F2="Chupetines",3,IF(F2="Pastillas",4,IF(F2="Gomas",4,IF(F2="Alfajores",5,IF(F2="Chocolates",6, IF(F2="Varios",7,IF(F2="Galletitas",8,IF(F2="Jugos",9,IF(F2="Farmacia",10,IF(F2="Urulat",11,IF(F2="Condimentos",12,-1)))))))))))))</f>
+        <f>IF(F2="Caramelos",1,IF(F2="Chicles",2,IF(F2="Chupetines",3,IF(F2="Pastillas",4,IF(F2="Gomas",5,IF(F2="Alfajores",6,IF(F2="Chocolates",7, IF(F2="Varios",8,IF(F2="Galletitas",9,IF(F2="Jugos",10,IF(F2="Farmacia",11,IF(F2="Urulat",12,IF(F2="Condimentos",13,-1)))))))))))))</f>
         <v>1</v>
       </c>
       <c r="I2" s="1" t="str">
@@ -2339,7 +2339,7 @@
         <v>230</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G66" si="0">IF(F3="Caramelos",1,IF(F3="Chicles",2,IF(F3="Chupetines",3,IF(F3="Pastillas",4,IF(F3="Gomas",4,IF(F3="Alfajores",5,IF(F3="Chocolates",6, IF(F3="Varios",7,IF(F3="Galletitas",8,IF(F3="Jugos",9,IF(F3="Farmacia",10,IF(F3="Urulat",11,IF(F3="Condimentos",12,-1)))))))))))))</f>
+        <f t="shared" ref="G3:G66" si="0">IF(F3="Caramelos",1,IF(F3="Chicles",2,IF(F3="Chupetines",3,IF(F3="Pastillas",4,IF(F3="Gomas",5,IF(F3="Alfajores",6,IF(F3="Chocolates",7, IF(F3="Varios",8,IF(F3="Galletitas",9,IF(F3="Jugos",10,IF(F3="Farmacia",11,IF(F3="Urulat",12,IF(F3="Condimentos",13,-1)))))))))))))</f>
         <v>1</v>
       </c>
       <c r="I3" s="1" t="str">
@@ -3748,15 +3748,15 @@
       </c>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Gomas FINI 500g','125',0,98,0.78,'1',4,'')</v>
+        <v>insert into productos values(null,'Gomas FINI 500g','125',0,98,0.78,'1',5,'')</v>
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Gomas FINI 500g','125',0,98,0.78,'1',4,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Gomas FINI 500g','125',0,98,0.78,'1',5,'')");</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75">
@@ -3780,15 +3780,15 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'GometsAritos','160',0,62,0.39,'2x1',4,'')</v>
+        <v>insert into productos values(null,'GometsAritos','160',0,62,0.39,'2x1',5,'')</v>
       </c>
       <c r="J48" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'GometsAritos','160',0,62,0.39,'2x1',4,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'GometsAritos','160',0,62,0.39,'2x1',5,'')");</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75">
@@ -3812,15 +3812,15 @@
       </c>
       <c r="G49" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Gomatubo x8 DORI','30',0,85,2.83,'5',4,'')</v>
+        <v>insert into productos values(null,'Gomatubo x8 DORI','30',0,85,2.83,'5',5,'')</v>
       </c>
       <c r="J49" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Gomatubo x8 DORI','30',0,85,2.83,'5',4,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Gomatubo x8 DORI','30',0,85,2.83,'5',5,'')");</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75">
@@ -3844,15 +3844,15 @@
       </c>
       <c r="G50" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Gomatubo x8 FLORESTAL','30',0,75,2.5,'4',4,'')</v>
+        <v>insert into productos values(null,'Gomatubo x8 FLORESTAL','30',0,75,2.5,'4',5,'')</v>
       </c>
       <c r="J50" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Gomatubo x8 FLORESTAL','30',0,75,2.5,'4',4,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Gomatubo x8 FLORESTAL','30',0,75,2.5,'4',5,'')");</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75">
@@ -3876,15 +3876,15 @@
       </c>
       <c r="G51" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'FrutillaOlimpo','50',0,118,2.36,'3',4,'')</v>
+        <v>insert into productos values(null,'FrutillaOlimpo','50',0,118,2.36,'3',5,'')</v>
       </c>
       <c r="J51" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'FrutillaOlimpo','50',0,118,2.36,'3',4,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'FrutillaOlimpo','50',0,118,2.36,'3',5,'')");</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75">
@@ -3908,15 +3908,15 @@
       </c>
       <c r="G52" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Mini goma DORI','30',0,96,3.6,'5',4,'')</v>
+        <v>insert into productos values(null,'Mini goma DORI','30',0,96,3.6,'5',5,'')</v>
       </c>
       <c r="J52" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Mini goma DORI','30',0,96,3.6,'5',4,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mini goma DORI','30',0,96,3.6,'5',5,'')");</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75">
@@ -3940,15 +3940,15 @@
       </c>
       <c r="G53" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Goma Docile OSITO','30',0,60,2,'4',4,'')</v>
+        <v>insert into productos values(null,'Goma Docile OSITO','30',0,60,2,'4',5,'')</v>
       </c>
       <c r="J53" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Goma Docile OSITO','30',0,60,2,'4',4,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Goma Docile OSITO','30',0,60,2,'4',5,'')");</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75">
@@ -3972,15 +3972,15 @@
       </c>
       <c r="G54" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Goma FINI ROLLER','24',0,94,3.91,'5',4,'')</v>
+        <v>insert into productos values(null,'Goma FINI ROLLER','24',0,94,3.91,'5',5,'')</v>
       </c>
       <c r="J54" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Goma FINI ROLLER','24',0,94,3.91,'5',4,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Goma FINI ROLLER','24',0,94,3.91,'5',5,'')");</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75">
@@ -4004,15 +4004,15 @@
       </c>
       <c r="G55" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Goma GOMUTCHO','1',0,0,8,'10',4,'')</v>
+        <v>insert into productos values(null,'Goma GOMUTCHO','1',0,0,8,'10',5,'')</v>
       </c>
       <c r="J55" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Goma GOMUTCHO','1',0,0,8,'10',4,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Goma GOMUTCHO','1',0,0,8,'10',5,'')");</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75">
@@ -4036,15 +4036,15 @@
       </c>
       <c r="G56" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'CHICHE Punta Pallena','16',0,75,4.68,'6',5,'')</v>
+        <v>insert into productos values(null,'CHICHE Punta Pallena','16',0,75,4.68,'6',6,'')</v>
       </c>
       <c r="J56" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'CHICHE Punta Pallena','16',0,75,4.68,'6',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'CHICHE Punta Pallena','16',0,75,4.68,'6',6,'')");</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75">
@@ -4068,15 +4068,15 @@
       </c>
       <c r="G57" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'AlfajorPlay love y PLAY','16',0,109,6.75,'8',5,'')</v>
+        <v>insert into productos values(null,'AlfajorPlay love y PLAY','16',0,109,6.75,'8',6,'')</v>
       </c>
       <c r="J57" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'AlfajorPlay love y PLAY','16',0,109,6.75,'8',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'AlfajorPlay love y PLAY','16',0,109,6.75,'8',6,'')");</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75">
@@ -4100,15 +4100,15 @@
       </c>
       <c r="G58" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Top Punta Ballena','12',0,106,8.8,'11',5,'')</v>
+        <v>insert into productos values(null,'Top Punta Ballena','12',0,106,8.8,'11',6,'')</v>
       </c>
       <c r="J58" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Top Punta Ballena','12',0,106,8.8,'11',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Top Punta Ballena','12',0,106,8.8,'11',6,'')");</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75">
@@ -4132,15 +4132,15 @@
       </c>
       <c r="G59" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Play triple  Punta Ballena','10',0,98,9.8,'13',5,'')</v>
+        <v>insert into productos values(null,'Play triple  Punta Ballena','10',0,98,9.8,'13',6,'')</v>
       </c>
       <c r="J59" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Play triple  Punta Ballena','10',0,98,9.8,'13',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Play triple  Punta Ballena','10',0,98,9.8,'13',6,'')");</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75">
@@ -4164,15 +4164,15 @@
       </c>
       <c r="G60" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Surprise Punta Ballena','12',0,170,14.16,'17',5,'')</v>
+        <v>insert into productos values(null,'Surprise Punta Ballena','12',0,170,14.16,'17',6,'')</v>
       </c>
       <c r="J60" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Surprise Punta Ballena','12',0,170,14.16,'17',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Surprise Punta Ballena','12',0,170,14.16,'17',6,'')");</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75">
@@ -4196,15 +4196,15 @@
       </c>
       <c r="G61" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Portezueloclasico','18',0,148,8.22,'10',5,'')</v>
+        <v>insert into productos values(null,'Portezueloclasico','18',0,148,8.22,'10',6,'')</v>
       </c>
       <c r="J61" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Portezueloclasico','18',0,148,8.22,'10',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Portezueloclasico','18',0,148,8.22,'10',6,'')");</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75">
@@ -4228,15 +4228,15 @@
       </c>
       <c r="G62" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Porezuelo Soft','18',0,148,8.22,'10',5,'')</v>
+        <v>insert into productos values(null,'Porezuelo Soft','18',0,148,8.22,'10',6,'')</v>
       </c>
       <c r="J62" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Porezuelo Soft','18',0,148,8.22,'10',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Porezuelo Soft','18',0,148,8.22,'10',6,'')");</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75">
@@ -4260,15 +4260,15 @@
       </c>
       <c r="G63" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Portezuelo Triple','12',0,140,11.66,'14',5,'')</v>
+        <v>insert into productos values(null,'Portezuelo Triple','12',0,140,11.66,'14',6,'')</v>
       </c>
       <c r="J63" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Portezuelo Triple','12',0,140,11.66,'14',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Portezuelo Triple','12',0,140,11.66,'14',6,'')");</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75">
@@ -4292,15 +4292,15 @@
       </c>
       <c r="G64" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Portezuelo Doble dulce de leche','14',0,139.5,9.96,'12',5,'')</v>
+        <v>insert into productos values(null,'Portezuelo Doble dulce de leche','14',0,139.5,9.96,'12',6,'')</v>
       </c>
       <c r="J64" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Portezuelo Doble dulce de leche','14',0,139.5,9.96,'12',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Portezuelo Doble dulce de leche','14',0,139.5,9.96,'12',6,'')");</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75">
@@ -4324,15 +4324,15 @@
       </c>
       <c r="G65" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'Portezuelo Extra DL Black Triple','12',0,155,12.5,'16',5,'')</v>
+        <v>insert into productos values(null,'Portezuelo Extra DL Black Triple','12',0,155,12.5,'16',6,'')</v>
       </c>
       <c r="J65" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'Portezuelo Extra DL Black Triple','12',0,155,12.5,'16',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Portezuelo Extra DL Black Triple','12',0,155,12.5,'16',6,'')");</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75">
@@ -4356,15 +4356,15 @@
       </c>
       <c r="G66" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>insert into productos values(null,'AlfajorNATIVO (Artesanal)','12',0,220,18.33,'23',5,'')</v>
+        <v>insert into productos values(null,'AlfajorNATIVO (Artesanal)','12',0,220,18.33,'23',6,'')</v>
       </c>
       <c r="J66" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>db.execSQL("insert into productos values(null,'AlfajorNATIVO (Artesanal)','12',0,220,18.33,'23',5,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'AlfajorNATIVO (Artesanal)','12',0,220,18.33,'23',6,'')");</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75">
@@ -4387,16 +4387,16 @@
         <v>236</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" ref="G67:G130" si="3">IF(F67="Caramelos",1,IF(F67="Chicles",2,IF(F67="Chupetines",3,IF(F67="Pastillas",4,IF(F67="Gomas",4,IF(F67="Alfajores",5,IF(F67="Chocolates",6, IF(F67="Varios",7,IF(F67="Galletitas",8,IF(F67="Jugos",9,IF(F67="Farmacia",10,IF(F67="Urulat",11,IF(F67="Condimentos",12,-1)))))))))))))</f>
-        <v>6</v>
+        <f t="shared" ref="G67:G130" si="3">IF(F67="Caramelos",1,IF(F67="Chicles",2,IF(F67="Chupetines",3,IF(F67="Pastillas",4,IF(F67="Gomas",5,IF(F67="Alfajores",6,IF(F67="Chocolates",7, IF(F67="Varios",8,IF(F67="Galletitas",9,IF(F67="Jugos",10,IF(F67="Farmacia",11,IF(F67="Urulat",12,IF(F67="Condimentos",13,-1)))))))))))))</f>
+        <v>7</v>
       </c>
       <c r="I67" s="1" t="str">
         <f t="shared" ref="I67:I130" si="4">CONCATENATE("insert into productos values(null,'",A67,   "','",     B67,    "',",     0,   ",",   C67,    ",",   D67,   ",'",     E67, "',",G67,",","'",H67,  "')"     )</f>
-        <v>insert into productos values(null,'Nicolox 23g ','30',0,160,5.26,'7',6,'')</v>
+        <v>insert into productos values(null,'Nicolox 23g ','30',0,160,5.26,'7',7,'')</v>
       </c>
       <c r="J67" s="1" t="str">
         <f t="shared" ref="J67:J130" si="5">CONCATENATE("db.execSQL(""",I67,""");")</f>
-        <v>db.execSQL("insert into productos values(null,'Nicolox 23g ','30',0,160,5.26,'7',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Nicolox 23g ','30',0,160,5.26,'7',7,'')");</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75">
@@ -4420,15 +4420,15 @@
       </c>
       <c r="G68" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I68" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Tableta GOLDEN ','15',0,128,8.53,'12',6,'')</v>
+        <v>insert into productos values(null,'Tableta GOLDEN ','15',0,128,8.53,'12',7,'')</v>
       </c>
       <c r="J68" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Tableta GOLDEN ','15',0,128,8.53,'12',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Tableta GOLDEN ','15',0,128,8.53,'12',7,'')");</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75">
@@ -4452,15 +4452,15 @@
       </c>
       <c r="G69" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I69" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Tableta GAROTO x150gr','12',0,0,53,'0',6,'')</v>
+        <v>insert into productos values(null,'Tableta GAROTO x150gr','12',0,0,53,'0',7,'')</v>
       </c>
       <c r="J69" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Tableta GAROTO x150gr','12',0,0,53,'0',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Tableta GAROTO x150gr','12',0,0,53,'0',7,'')");</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75">
@@ -4484,15 +4484,15 @@
       </c>
       <c r="G70" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I70" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Chocolate de taza Alteza 90gr','1',0,0,25,'0',6,'')</v>
+        <v>insert into productos values(null,'Chocolate de taza Alteza 90gr','1',0,0,25,'0',7,'')</v>
       </c>
       <c r="J70" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Chocolate de taza Alteza 90gr','1',0,0,25,'0',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Chocolate de taza Alteza 90gr','1',0,0,25,'0',7,'')");</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75">
@@ -4516,15 +4516,15 @@
       </c>
       <c r="G71" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I71" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Bombon COMPLICE','30',0,120,4,'5',6,'')</v>
+        <v>insert into productos values(null,'Bombon COMPLICE','30',0,120,4,'5',7,'')</v>
       </c>
       <c r="J71" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Bombon COMPLICE','30',0,120,4,'5',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Bombon COMPLICE','30',0,120,4,'5',7,'')");</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75">
@@ -4548,15 +4548,15 @@
       </c>
       <c r="G72" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I72" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Bombon BOB ESPONJA','50',0,82,1.64,'2',6,'')</v>
+        <v>insert into productos values(null,'Bombon BOB ESPONJA','50',0,82,1.64,'2',7,'')</v>
       </c>
       <c r="J72" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Bombon BOB ESPONJA','50',0,82,1.64,'2',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Bombon BOB ESPONJA','50',0,82,1.64,'2',7,'')");</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75">
@@ -4580,15 +4580,15 @@
       </c>
       <c r="G73" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I73" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Batón','30',0,230,7.66,'10',6,'')</v>
+        <v>insert into productos values(null,'Batón','30',0,230,7.66,'10',7,'')</v>
       </c>
       <c r="J73" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Batón','30',0,230,7.66,'10',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Batón','30',0,230,7.66,'10',7,'')");</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75">
@@ -4612,15 +4612,15 @@
       </c>
       <c r="G74" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I74" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Baton JAZAM','30',0,110,3.66,'5',6,'')</v>
+        <v>insert into productos values(null,'Baton JAZAM','30',0,110,3.66,'5',7,'')</v>
       </c>
       <c r="J74" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Baton JAZAM','30',0,110,3.66,'5',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Baton JAZAM','30',0,110,3.66,'5',7,'')");</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75">
@@ -4644,15 +4644,15 @@
       </c>
       <c r="G75" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I75" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Barra Cereales CEREANOLA','24',0,189,7.88,'10',6,'')</v>
+        <v>insert into productos values(null,'Barra Cereales CEREANOLA','24',0,189,7.88,'10',7,'')</v>
       </c>
       <c r="J75" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Barra Cereales CEREANOLA','24',0,189,7.88,'10',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Barra Cereales CEREANOLA','24',0,189,7.88,'10',7,'')");</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75">
@@ -4676,15 +4676,15 @@
       </c>
       <c r="G76" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I76" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Wafle Triangulo','48',0,77,1.6,'2',6,'')</v>
+        <v>insert into productos values(null,'Wafle Triangulo','48',0,77,1.6,'2',7,'')</v>
       </c>
       <c r="J76" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Wafle Triangulo','48',0,77,1.6,'2',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Wafle Triangulo','48',0,77,1.6,'2',7,'')");</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75">
@@ -4708,15 +4708,15 @@
       </c>
       <c r="G77" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I77" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Tab Golden chica','20',0,78,3.9,'5',6,'')</v>
+        <v>insert into productos values(null,'Tab Golden chica','20',0,78,3.9,'5',7,'')</v>
       </c>
       <c r="J77" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Tab Golden chica','20',0,78,3.9,'5',6,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Tab Golden chica','20',0,78,3.9,'5',7,'')");</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75">
@@ -4740,15 +4740,15 @@
       </c>
       <c r="G78" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I78" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Ticholo Mariola','50',0,88,1.76,'2X5',7,'')</v>
+        <v>insert into productos values(null,'Ticholo Mariola','50',0,88,1.76,'2X5',8,'')</v>
       </c>
       <c r="J78" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Ticholo Mariola','50',0,88,1.76,'2X5',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Ticholo Mariola','50',0,88,1.76,'2X5',8,'')");</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75">
@@ -4772,15 +4772,15 @@
       </c>
       <c r="G79" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I79" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Nucita','48',0,76,1.58,'2',7,'')</v>
+        <v>insert into productos values(null,'Nucita','48',0,76,1.58,'2',8,'')</v>
       </c>
       <c r="J79" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Nucita','48',0,76,1.58,'2',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Nucita','48',0,76,1.58,'2',8,'')");</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75">
@@ -4804,15 +4804,15 @@
       </c>
       <c r="G80" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I80" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Rapadura','60',0,96,1.6,'2',7,'')</v>
+        <v>insert into productos values(null,'Rapadura','60',0,96,1.6,'2',8,'')</v>
       </c>
       <c r="J80" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Rapadura','60',0,96,1.6,'2',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Rapadura','60',0,96,1.6,'2',8,'')");</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75">
@@ -4836,15 +4836,15 @@
       </c>
       <c r="G81" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I81" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Barquillo CH Y DL','60',0,96,1.6,'2',7,'')</v>
+        <v>insert into productos values(null,'Barquillo CH Y DL','60',0,96,1.6,'2',8,'')</v>
       </c>
       <c r="J81" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Barquillo CH Y DL','60',0,96,1.6,'2',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Barquillo CH Y DL','60',0,96,1.6,'2',8,'')");</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75">
@@ -4868,15 +4868,15 @@
       </c>
       <c r="G82" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I82" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Barquillo bañado crock roll','30',0,133,4.43,'6',7,'')</v>
+        <v>insert into productos values(null,'Barquillo bañado crock roll','30',0,133,4.43,'6',8,'')</v>
       </c>
       <c r="J82" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Barquillo bañado crock roll','30',0,133,4.43,'6',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Barquillo bañado crock roll','30',0,133,4.43,'6',8,'')");</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="31.5">
@@ -4900,15 +4900,15 @@
       </c>
       <c r="G83" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I83" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Palitos Salados (Jam. Ques. Panceta)','1kg',0,135,13.5,'100gr x $18',7,'')</v>
+        <v>insert into productos values(null,'Palitos Salados (Jam. Ques. Panceta)','1kg',0,135,13.5,'100gr x $18',8,'')</v>
       </c>
       <c r="J83" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Palitos Salados (Jam. Ques. Panceta)','1kg',0,135,13.5,'100gr x $18',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Palitos Salados (Jam. Ques. Panceta)','1kg',0,135,13.5,'100gr x $18',8,'')");</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75">
@@ -4932,15 +4932,15 @@
       </c>
       <c r="G84" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I84" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mani Artesanal (Con y Sin Sal)','1kg',0,135,13.5,'100gr x $18',7,'')</v>
+        <v>insert into productos values(null,'Mani Artesanal (Con y Sin Sal)','1kg',0,135,13.5,'100gr x $18',8,'')</v>
       </c>
       <c r="J84" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mani Artesanal (Con y Sin Sal)','1kg',0,135,13.5,'100gr x $18',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mani Artesanal (Con y Sin Sal)','1kg',0,135,13.5,'100gr x $18',8,'')");</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="31.5">
@@ -4964,15 +4964,15 @@
       </c>
       <c r="G85" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I85" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mani Salado STA. HELENA Bolsa 20gr.','50',0,180,3.6,'5',7,'')</v>
+        <v>insert into productos values(null,'Mani Salado STA. HELENA Bolsa 20gr.','50',0,180,3.6,'5',8,'')</v>
       </c>
       <c r="J85" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA Bolsa 20gr.','50',0,180,3.6,'5',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA Bolsa 20gr.','50',0,180,3.6,'5',8,'')");</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75">
@@ -4996,15 +4996,15 @@
       </c>
       <c r="G86" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I86" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mani Salado STA. HELENA 60gr.','30',0,0,10,'12',7,'')</v>
+        <v>insert into productos values(null,'Mani Salado STA. HELENA 60gr.','30',0,0,10,'12',8,'')</v>
       </c>
       <c r="J86" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA 60gr.','30',0,0,10,'12',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA 60gr.','30',0,0,10,'12',8,'')");</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75">
@@ -5028,15 +5028,15 @@
       </c>
       <c r="G87" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I87" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mani Salado STA. HELENA 200gr.','24',0,0,30,'36',7,'')</v>
+        <v>insert into productos values(null,'Mani Salado STA. HELENA 200gr.','24',0,0,30,'36',8,'')</v>
       </c>
       <c r="J87" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA 200gr.','24',0,0,30,'36',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mani Salado STA. HELENA 200gr.','24',0,0,30,'36',8,'')");</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75">
@@ -5060,15 +5060,15 @@
       </c>
       <c r="G88" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I88" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mani Japonés Dori 100gr.','30',0,0,12.6,'16',7,'')</v>
+        <v>insert into productos values(null,'Mani Japonés Dori 100gr.','30',0,0,12.6,'16',8,'')</v>
       </c>
       <c r="J88" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mani Japonés Dori 100gr.','30',0,0,12.6,'16',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mani Japonés Dori 100gr.','30',0,0,12.6,'16',8,'')");</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75">
@@ -5092,15 +5092,15 @@
       </c>
       <c r="G89" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I89" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mani C/Chocolate Dori 100gr.','30',0,0,12.6,'16',7,'')</v>
+        <v>insert into productos values(null,'Mani C/Chocolate Dori 100gr.','30',0,0,12.6,'16',8,'')</v>
       </c>
       <c r="J89" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mani C/Chocolate Dori 100gr.','30',0,0,12.6,'16',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mani C/Chocolate Dori 100gr.','30',0,0,12.6,'16',8,'')");</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75">
@@ -5124,15 +5124,15 @@
       </c>
       <c r="G90" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I90" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mani C/Chocolate Dori 70gr.','30',0,0,10,'13',7,'')</v>
+        <v>insert into productos values(null,'Mani C/Chocolate Dori 70gr.','30',0,0,10,'13',8,'')</v>
       </c>
       <c r="J90" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mani C/Chocolate Dori 70gr.','30',0,0,10,'13',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mani C/Chocolate Dori 70gr.','30',0,0,10,'13',8,'')");</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75">
@@ -5156,15 +5156,15 @@
       </c>
       <c r="G91" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I91" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mani C/Chocolate COLONIAL x24gr','16',0,144,9,'12',7,'')</v>
+        <v>insert into productos values(null,'Mani C/Chocolate COLONIAL x24gr','16',0,144,9,'12',8,'')</v>
       </c>
       <c r="J91" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mani C/Chocolate COLONIAL x24gr','16',0,144,9,'12',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mani C/Chocolate COLONIAL x24gr','16',0,144,9,'12',8,'')");</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75">
@@ -5188,15 +5188,15 @@
       </c>
       <c r="G92" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I92" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'SaladitoHorneadoTrofeú','20',0,190,9.5,'12',7,'')</v>
+        <v>insert into productos values(null,'SaladitoHorneadoTrofeú','20',0,190,9.5,'12',8,'')</v>
       </c>
       <c r="J92" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'SaladitoHorneadoTrofeú','20',0,190,9.5,'12',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'SaladitoHorneadoTrofeú','20',0,190,9.5,'12',8,'')");</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75">
@@ -5220,15 +5220,15 @@
       </c>
       <c r="G93" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I93" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Papas KRACHITOS x 20gr. TIRA','6',0,58.2,9.7,'12',7,'')</v>
+        <v>insert into productos values(null,'Papas KRACHITOS x 20gr. TIRA','6',0,58.2,9.7,'12',8,'')</v>
       </c>
       <c r="J93" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Papas KRACHITOS x 20gr. TIRA','6',0,58.2,9.7,'12',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Papas KRACHITOS x 20gr. TIRA','6',0,58.2,9.7,'12',8,'')");</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75">
@@ -5252,15 +5252,15 @@
       </c>
       <c r="G94" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I94" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Papas KRACHITOS x 120gr.','1',0,49.2,0,'60',7,'')</v>
+        <v>insert into productos values(null,'Papas KRACHITOS x 120gr.','1',0,49.2,0,'60',8,'')</v>
       </c>
       <c r="J94" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Papas KRACHITOS x 120gr.','1',0,49.2,0,'60',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Papas KRACHITOS x 120gr.','1',0,49.2,0,'60',8,'')");</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="31.5">
@@ -5284,15 +5284,15 @@
       </c>
       <c r="G95" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I95" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Combo CHARLY (2 pap. 120g y 2 mani)','1',0,106,0,'126',7,'')</v>
+        <v>insert into productos values(null,'Combo CHARLY (2 pap. 120g y 2 mani)','1',0,106,0,'126',8,'')</v>
       </c>
       <c r="J95" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Combo CHARLY (2 pap. 120g y 2 mani)','1',0,106,0,'126',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Combo CHARLY (2 pap. 120g y 2 mani)','1',0,106,0,'126',8,'')");</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75">
@@ -5316,15 +5316,15 @@
       </c>
       <c r="G96" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I96" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Sopladitos de Queso ORES','100grs',0,0,22.5,'28',7,'')</v>
+        <v>insert into productos values(null,'Sopladitos de Queso ORES','100grs',0,0,22.5,'28',8,'')</v>
       </c>
       <c r="J96" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Sopladitos de Queso ORES','100grs',0,0,22.5,'28',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Sopladitos de Queso ORES','100grs',0,0,22.5,'28',8,'')");</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75">
@@ -5348,15 +5348,15 @@
       </c>
       <c r="G97" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I97" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Sopladitos de Queso BUBY','210grs',0,0,44.5,'50',7,'')</v>
+        <v>insert into productos values(null,'Sopladitos de Queso BUBY','210grs',0,0,44.5,'50',8,'')</v>
       </c>
       <c r="J97" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Sopladitos de Queso BUBY','210grs',0,0,44.5,'50',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Sopladitos de Queso BUBY','210grs',0,0,44.5,'50',8,'')");</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75">
@@ -5380,15 +5380,15 @@
       </c>
       <c r="G98" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I98" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Sopladitis de Queso BUBY','100grs',0,0,22.5,'28',7,'')</v>
+        <v>insert into productos values(null,'Sopladitis de Queso BUBY','100grs',0,0,22.5,'28',8,'')</v>
       </c>
       <c r="J98" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Sopladitis de Queso BUBY','100grs',0,0,22.5,'28',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Sopladitis de Queso BUBY','100grs',0,0,22.5,'28',8,'')");</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75">
@@ -5412,15 +5412,15 @@
       </c>
       <c r="G99" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I99" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Papas Pay ORES','500g',0,0,140,'0',7,'')</v>
+        <v>insert into productos values(null,'Papas Pay ORES','500g',0,0,140,'0',8,'')</v>
       </c>
       <c r="J99" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Papas Pay ORES','500g',0,0,140,'0',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Papas Pay ORES','500g',0,0,140,'0',8,'')");</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15.75">
@@ -5444,15 +5444,15 @@
       </c>
       <c r="G100" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I100" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Café SAINT','100',0,114,1.14,'2x3',7,'')</v>
+        <v>insert into productos values(null,'Café SAINT','100',0,114,1.14,'2x3',8,'')</v>
       </c>
       <c r="J100" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Café SAINT','100',0,114,1.14,'2x3',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Café SAINT','100',0,114,1.14,'2x3',8,'')");</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75">
@@ -5476,15 +5476,15 @@
       </c>
       <c r="G101" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I101" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Té SAINT','100',0,94,0.94,'2x3',7,'')</v>
+        <v>insert into productos values(null,'Té SAINT','100',0,94,0.94,'2x3',8,'')</v>
       </c>
       <c r="J101" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Té SAINT','100',0,94,0.94,'2x3',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Té SAINT','100',0,94,0.94,'2x3',8,'')");</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15.75">
@@ -5508,15 +5508,15 @@
       </c>
       <c r="G102" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I102" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Colet SAINT x10gr.','50',0,48,0.96,'2x3',7,'')</v>
+        <v>insert into productos values(null,'Colet SAINT x10gr.','50',0,48,0.96,'2x3',8,'')</v>
       </c>
       <c r="J102" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Colet SAINT x10gr.','50',0,48,0.96,'2x3',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Colet SAINT x10gr.','50',0,48,0.96,'2x3',8,'')");</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75">
@@ -5540,15 +5540,15 @@
       </c>
       <c r="G103" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I103" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Bracafecito Nescafe','120',0,193,1.6,'2',7,'')</v>
+        <v>insert into productos values(null,'Bracafecito Nescafe','120',0,193,1.6,'2',8,'')</v>
       </c>
       <c r="J103" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Bracafecito Nescafe','120',0,193,1.6,'2',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Bracafecito Nescafe','120',0,193,1.6,'2',8,'')");</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15.75">
@@ -5572,15 +5572,15 @@
       </c>
       <c r="G104" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I104" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Café Aguila Stick','240',0,193,0.8,'1',7,'')</v>
+        <v>insert into productos values(null,'Café Aguila Stick','240',0,193,0.8,'1',8,'')</v>
       </c>
       <c r="J104" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Café Aguila Stick','240',0,193,0.8,'1',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Café Aguila Stick','240',0,193,0.8,'1',8,'')");</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.75">
@@ -5604,15 +5604,15 @@
       </c>
       <c r="G105" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I105" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mayonesa Uruguay 125cc ','20',0,230,11.5,'15',7,'')</v>
+        <v>insert into productos values(null,'Mayonesa Uruguay 125cc ','20',0,230,11.5,'15',8,'')</v>
       </c>
       <c r="J105" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mayonesa Uruguay 125cc ','20',0,230,11.5,'15',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mayonesa Uruguay 125cc ','20',0,230,11.5,'15',8,'')");</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15.75">
@@ -5636,15 +5636,15 @@
       </c>
       <c r="G106" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I106" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mayonesa Uruguay  500gr','15',0,0,38.8,'47',7,'')</v>
+        <v>insert into productos values(null,'Mayonesa Uruguay  500gr','15',0,0,38.8,'47',8,'')</v>
       </c>
       <c r="J106" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mayonesa Uruguay  500gr','15',0,0,38.8,'47',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mayonesa Uruguay  500gr','15',0,0,38.8,'47',8,'')");</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15.75">
@@ -5668,15 +5668,15 @@
       </c>
       <c r="G107" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I107" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Arroz Green Chef x1kg','20',0,558,28,'33',7,'')</v>
+        <v>insert into productos values(null,'Arroz Green Chef x1kg','20',0,558,28,'33',8,'')</v>
       </c>
       <c r="J107" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Arroz Green Chef x1kg','20',0,558,28,'33',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Arroz Green Chef x1kg','20',0,558,28,'33',8,'')");</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="15.75">
@@ -5700,15 +5700,15 @@
       </c>
       <c r="G108" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I108" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'AceiteOptimo','15',0,825,57,'66',7,'')</v>
+        <v>insert into productos values(null,'AceiteOptimo','15',0,825,57,'66',8,'')</v>
       </c>
       <c r="J108" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'AceiteOptimo','15',0,825,57,'66',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'AceiteOptimo','15',0,825,57,'66',8,'')");</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75">
@@ -5732,15 +5732,15 @@
       </c>
       <c r="G109" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I109" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'AceiteCondesa','15',0,0,33.5,'0',7,'')</v>
+        <v>insert into productos values(null,'AceiteCondesa','15',0,0,33.5,'0',8,'')</v>
       </c>
       <c r="J109" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'AceiteCondesa','15',0,0,33.5,'0',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'AceiteCondesa','15',0,0,33.5,'0',8,'')");</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15.75">
@@ -5764,15 +5764,15 @@
       </c>
       <c r="G110" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I110" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Pure de papa LIDER x120gr','20',0,0,16.8,'21',7,'')</v>
+        <v>insert into productos values(null,'Pure de papa LIDER x120gr','20',0,0,16.8,'21',8,'')</v>
       </c>
       <c r="J110" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Pure de papa LIDER x120gr','20',0,0,16.8,'21',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Pure de papa LIDER x120gr','20',0,0,16.8,'21',8,'')");</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75">
@@ -5796,18 +5796,18 @@
       </c>
       <c r="G111" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>350</v>
       </c>
       <c r="I111" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Cereal c/azúcar TORRE NUEVA','1,5kg',0,182,121.33,'18',7,'Precio unit. Por kg')</v>
+        <v>insert into productos values(null,'Cereal c/azúcar TORRE NUEVA','1,5kg',0,182,121.33,'18',8,'Precio unit. Por kg')</v>
       </c>
       <c r="J111" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Cereal c/azúcar TORRE NUEVA','1,5kg',0,182,121.33,'18',7,'Precio unit. Por kg')");</v>
+        <v>db.execSQL("insert into productos values(null,'Cereal c/azúcar TORRE NUEVA','1,5kg',0,182,121.33,'18',8,'Precio unit. Por kg')");</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75">
@@ -5831,15 +5831,15 @@
       </c>
       <c r="G112" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I112" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Cereal Arito Frutado TORRE NUEVA ','  1,5Kg',0,218,14.5,'18',7,'')</v>
+        <v>insert into productos values(null,'Cereal Arito Frutado TORRE NUEVA ','  1,5Kg',0,218,14.5,'18',8,'')</v>
       </c>
       <c r="J112" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Cereal Arito Frutado TORRE NUEVA ','  1,5Kg',0,218,14.5,'18',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Cereal Arito Frutado TORRE NUEVA ','  1,5Kg',0,218,14.5,'18',8,'')");</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="G113" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I113" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Levadura Levachef','20',0,118,5.9,'8',7,'')</v>
+        <v>insert into productos values(null,'Levadura Levachef','20',0,118,5.9,'8',8,'')</v>
       </c>
       <c r="J113" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Levadura Levachef','20',0,118,5.9,'8',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Levadura Levachef','20',0,118,5.9,'8',8,'')");</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75">
@@ -5895,15 +5895,15 @@
       </c>
       <c r="G114" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I114" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Polvo Royal x30gr','16',0,134.4,8.4,'10',7,'')</v>
+        <v>insert into productos values(null,'Polvo Royal x30gr','16',0,134.4,8.4,'10',8,'')</v>
       </c>
       <c r="J114" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Polvo Royal x30gr','16',0,134.4,8.4,'10',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Polvo Royal x30gr','16',0,134.4,8.4,'10',8,'')");</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75">
@@ -5927,15 +5927,15 @@
       </c>
       <c r="G115" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I115" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Extracto de tomate PIZER 60gr','12',0,129,10.75,'14',7,'')</v>
+        <v>insert into productos values(null,'Extracto de tomate PIZER 60gr','12',0,129,10.75,'14',8,'')</v>
       </c>
       <c r="J115" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Extracto de tomate PIZER 60gr','12',0,129,10.75,'14',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Extracto de tomate PIZER 60gr','12',0,129,10.75,'14',8,'')");</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="G116" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I116" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Tabletas Raid','24',0,118,4.92,'6',7,'')</v>
+        <v>insert into productos values(null,'Tabletas Raid','24',0,118,4.92,'6',8,'')</v>
       </c>
       <c r="J116" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Tabletas Raid','24',0,118,4.92,'6',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Tabletas Raid','24',0,118,4.92,'6',8,'')");</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75">
@@ -5991,15 +5991,15 @@
       </c>
       <c r="G117" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I117" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Insecticida  SAPOLIO','12',0,0,69,'83',7,'')</v>
+        <v>insert into productos values(null,'Insecticida  SAPOLIO','12',0,0,69,'83',8,'')</v>
       </c>
       <c r="J117" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Insecticida  SAPOLIO','12',0,0,69,'83',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Insecticida  SAPOLIO','12',0,0,69,'83',8,'')");</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75">
@@ -6023,15 +6023,15 @@
       </c>
       <c r="G118" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I118" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Desodorante Amb. SAPOLIO','12',0,556,48.5,'0',7,'')</v>
+        <v>insert into productos values(null,'Desodorante Amb. SAPOLIO','12',0,556,48.5,'0',8,'')</v>
       </c>
       <c r="J118" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Desodorante Amb. SAPOLIO','12',0,556,48.5,'0',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Desodorante Amb. SAPOLIO','12',0,556,48.5,'0',8,'')");</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="G119" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I119" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Desodorante Amb. GLADE ','12',0,552,46,'55',7,'')</v>
+        <v>insert into productos values(null,'Desodorante Amb. GLADE ','12',0,552,46,'55',8,'')</v>
       </c>
       <c r="J119" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Desodorante Amb. GLADE ','12',0,552,46,'55',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Desodorante Amb. GLADE ','12',0,552,46,'55',8,'')");</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="31.5">
@@ -6087,15 +6087,15 @@
       </c>
       <c r="G120" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I120" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Lysoform (Original, BB, Floral,avanda)','12',0,0,90,'106',7,'')</v>
+        <v>insert into productos values(null,'Lysoform (Original, BB, Floral,avanda)','12',0,0,90,'106',8,'')</v>
       </c>
       <c r="J120" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Lysoform (Original, BB, Floral,avanda)','12',0,0,90,'106',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Lysoform (Original, BB, Floral,avanda)','12',0,0,90,'106',8,'')");</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="31.5">
@@ -6119,15 +6119,15 @@
       </c>
       <c r="G121" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I121" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mr. Musculo Pisos x900ml(tipo Fabuloso)','12',0,374,33,'0',7,'')</v>
+        <v>insert into productos values(null,'Mr. Musculo Pisos x900ml(tipo Fabuloso)','12',0,374,33,'0',8,'')</v>
       </c>
       <c r="J121" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mr. Musculo Pisos x900ml(tipo Fabuloso)','12',0,374,33,'0',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mr. Musculo Pisos x900ml(tipo Fabuloso)','12',0,374,33,'0',8,'')");</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.75">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="G122" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I122" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Mr. Musculo Pisos x1,800lts','8',0,451,58.7,'0',7,'')</v>
+        <v>insert into productos values(null,'Mr. Musculo Pisos x1,800lts','8',0,451,58.7,'0',8,'')</v>
       </c>
       <c r="J122" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Mr. Musculo Pisos x1,800lts','8',0,451,58.7,'0',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Mr. Musculo Pisos x1,800lts','8',0,451,58.7,'0',8,'')");</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="31.5">
@@ -6183,15 +6183,15 @@
       </c>
       <c r="G123" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I123" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Encendedor económico RONSON (trnsp)','25',0,212,8.5,'10',7,'')</v>
+        <v>insert into productos values(null,'Encendedor económico RONSON (trnsp)','25',0,212,8.5,'10',8,'')</v>
       </c>
       <c r="J123" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Encendedor económico RONSON (trnsp)','25',0,212,8.5,'10',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Encendedor económico RONSON (trnsp)','25',0,212,8.5,'10',8,'')");</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75">
@@ -6215,15 +6215,15 @@
       </c>
       <c r="G124" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I124" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Encendedor BIC','50',0,0,24,'30',7,'')</v>
+        <v>insert into productos values(null,'Encendedor BIC','50',0,0,24,'30',8,'')</v>
       </c>
       <c r="J124" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Encendedor BIC','50',0,0,24,'30',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Encendedor BIC','50',0,0,24,'30',8,'')");</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.75">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="G125" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I125" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Pilas Everreadi Chicas','4',0,18.6,4.65,'6',7,'')</v>
+        <v>insert into productos values(null,'Pilas Everreadi Chicas','4',0,18.6,4.65,'6',8,'')</v>
       </c>
       <c r="J125" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Pilas Everreadi Chicas','4',0,18.6,4.65,'6',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Pilas Everreadi Chicas','4',0,18.6,4.65,'6',8,'')");</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75">
@@ -6279,15 +6279,15 @@
       </c>
       <c r="G126" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I126" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Pilas Everreadi Mediana','24',0,252,10.8,'13',7,'')</v>
+        <v>insert into productos values(null,'Pilas Everreadi Mediana','24',0,252,10.8,'13',8,'')</v>
       </c>
       <c r="J126" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Pilas Everreadi Mediana','24',0,252,10.8,'13',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Pilas Everreadi Mediana','24',0,252,10.8,'13',8,'')");</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.75">
@@ -6311,15 +6311,15 @@
       </c>
       <c r="G127" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I127" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Pilas Everreadi Grande','24',0,288,12,'15',7,'')</v>
+        <v>insert into productos values(null,'Pilas Everreadi Grande','24',0,288,12,'15',8,'')</v>
       </c>
       <c r="J127" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Pilas Everreadi Grande','24',0,288,12,'15',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Pilas Everreadi Grande','24',0,288,12,'15',8,'')");</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.75">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="G128" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I128" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Pilas Panasonic Alcalina (AA y AAA)','20',0,243,12.15,'16',7,'')</v>
+        <v>insert into productos values(null,'Pilas Panasonic Alcalina (AA y AAA)','20',0,243,12.15,'16',8,'')</v>
       </c>
       <c r="J128" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Pilas Panasonic Alcalina (AA y AAA)','20',0,243,12.15,'16',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Pilas Panasonic Alcalina (AA y AAA)','20',0,243,12.15,'16',8,'')");</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15.75">
@@ -6375,15 +6375,15 @@
       </c>
       <c r="G129" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I129" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Pilas Panasonic chica','4',0,309,20.6,'7',7,'')</v>
+        <v>insert into productos values(null,'Pilas Panasonic chica','4',0,309,20.6,'7',8,'')</v>
       </c>
       <c r="J129" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Pilas Panasonic chica','4',0,309,20.6,'7',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Pilas Panasonic chica','4',0,309,20.6,'7',8,'')");</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.75">
@@ -6407,15 +6407,15 @@
       </c>
       <c r="G130" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I130" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>insert into productos values(null,'Pilas Panasonic Grande (com)','24',0,336,14,'17',7,'')</v>
+        <v>insert into productos values(null,'Pilas Panasonic Grande (com)','24',0,336,14,'17',8,'')</v>
       </c>
       <c r="J130" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>db.execSQL("insert into productos values(null,'Pilas Panasonic Grande (com)','24',0,336,14,'17',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Pilas Panasonic Grande (com)','24',0,336,14,'17',8,'')");</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.75">
@@ -6438,16 +6438,16 @@
         <v>237</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" ref="G131:G194" si="6">IF(F131="Caramelos",1,IF(F131="Chicles",2,IF(F131="Chupetines",3,IF(F131="Pastillas",4,IF(F131="Gomas",4,IF(F131="Alfajores",5,IF(F131="Chocolates",6, IF(F131="Varios",7,IF(F131="Galletitas",8,IF(F131="Jugos",9,IF(F131="Farmacia",10,IF(F131="Urulat",11,IF(F131="Condimentos",12,-1)))))))))))))</f>
-        <v>7</v>
+        <f t="shared" ref="G131:G194" si="6">IF(F131="Caramelos",1,IF(F131="Chicles",2,IF(F131="Chupetines",3,IF(F131="Pastillas",4,IF(F131="Gomas",5,IF(F131="Alfajores",6,IF(F131="Chocolates",7, IF(F131="Varios",8,IF(F131="Galletitas",9,IF(F131="Jugos",10,IF(F131="Farmacia",11,IF(F131="Urulat",12,IF(F131="Condimentos",13,-1)))))))))))))</f>
+        <v>8</v>
       </c>
       <c r="I131" s="1" t="str">
         <f t="shared" ref="I131:I194" si="7">CONCATENATE("insert into productos values(null,'",A131,   "','",     B131,    "',",     0,   ",",   C131,    ",",   D131,   ",'",     E131, "',",G131,",","'",H131,  "')"     )</f>
-        <v>insert into productos values(null,'Pilas Alcalina Grande POLAROID ','2',0,120,60,'75',7,'')</v>
+        <v>insert into productos values(null,'Pilas Alcalina Grande POLAROID ','2',0,120,60,'75',8,'')</v>
       </c>
       <c r="J131" s="1" t="str">
         <f t="shared" ref="J131:J194" si="8">CONCATENATE("db.execSQL(""",I131,""");")</f>
-        <v>db.execSQL("insert into productos values(null,'Pilas Alcalina Grande POLAROID ','2',0,120,60,'75',7,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Pilas Alcalina Grande POLAROID ','2',0,120,60,'75',8,'')");</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15.75">
@@ -6471,15 +6471,15 @@
       </c>
       <c r="G132" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I132" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'WaflesMY BIT','30',0,300,10.9,'13',8,'')</v>
+        <v>insert into productos values(null,'WaflesMY BIT','30',0,300,10.9,'13',9,'')</v>
       </c>
       <c r="J132" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'WaflesMY BIT','30',0,300,10.9,'13',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'WaflesMY BIT','30',0,300,10.9,'13',9,'')");</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15.75">
@@ -6503,15 +6503,15 @@
       </c>
       <c r="G133" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I133" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'GalletitaRellena EURO','30',0,240,8.3,'10',8,'')</v>
+        <v>insert into productos values(null,'GalletitaRellena EURO','30',0,240,8.3,'10',9,'')</v>
       </c>
       <c r="J133" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'GalletitaRellena EURO','30',0,240,8.3,'10',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'GalletitaRellena EURO','30',0,240,8.3,'10',9,'')");</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15.75">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="G134" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I134" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Galletita Rellena Zabet x4 tubos','1',0,0,31,'0',8,'')</v>
+        <v>insert into productos values(null,'Galletita Rellena Zabet x4 tubos','1',0,0,31,'0',9,'')</v>
       </c>
       <c r="J134" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Galletita Rellena Zabet x4 tubos','1',0,0,31,'0',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Galletita Rellena Zabet x4 tubos','1',0,0,31,'0',9,'')");</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15.75">
@@ -6567,15 +6567,15 @@
       </c>
       <c r="G135" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I135" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Isabela Integral x3 400grs','20',0,640,33.5,'40',8,'')</v>
+        <v>insert into productos values(null,'Isabela Integral x3 400grs','20',0,640,33.5,'40',9,'')</v>
       </c>
       <c r="J135" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Isabela Integral x3 400grs','20',0,640,33.5,'40',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Isabela Integral x3 400grs','20',0,640,33.5,'40',9,'')");</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.75">
@@ -6599,15 +6599,15 @@
       </c>
       <c r="G136" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I136" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Isabela Sal y Agua x3','20',0,0,33,'41',8,'')</v>
+        <v>insert into productos values(null,'Isabela Sal y Agua x3','20',0,0,33,'41',9,'')</v>
       </c>
       <c r="J136" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Isabela Sal y Agua x3','20',0,0,33,'41',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Isabela Sal y Agua x3','20',0,0,33,'41',9,'')");</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="G137" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I137" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'IasabelaMaicena x3','20',0,0,33,'41',8,'')</v>
+        <v>insert into productos values(null,'IasabelaMaicena x3','20',0,0,33,'41',9,'')</v>
       </c>
       <c r="J137" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'IasabelaMaicena x3','20',0,0,33,'41',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'IasabelaMaicena x3','20',0,0,33,'41',9,'')");</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75">
@@ -6663,15 +6663,15 @@
       </c>
       <c r="G138" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I138" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Isabela Maria x3','20',0,0,33,'41',8,'')</v>
+        <v>insert into productos values(null,'Isabela Maria x3','20',0,0,33,'41',9,'')</v>
       </c>
       <c r="J138" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Isabela Maria x3','20',0,0,33,'41',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Isabela Maria x3','20',0,0,33,'41',9,'')");</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.75">
@@ -6695,15 +6695,15 @@
       </c>
       <c r="G139" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I139" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Maria VITORIA 100g','34',0,0,9,'12',8,'')</v>
+        <v>insert into productos values(null,'Maria VITORIA 100g','34',0,0,9,'12',9,'')</v>
       </c>
       <c r="J139" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Maria VITORIA 100g','34',0,0,9,'12',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Maria VITORIA 100g','34',0,0,9,'12',9,'')");</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="G140" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I140" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'GalletaNinffa x2 (370gr)','20',0,0,25,'30',8,'')</v>
+        <v>insert into productos values(null,'GalletaNinffa x2 (370gr)','20',0,0,25,'30',9,'')</v>
       </c>
       <c r="J140" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'GalletaNinffa x2 (370gr)','20',0,0,25,'30',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'GalletaNinffa x2 (370gr)','20',0,0,25,'30',9,'')");</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.75">
@@ -6759,15 +6759,15 @@
       </c>
       <c r="G141" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I141" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Galleta ORQUIDEA x400gr','20',0,0,20,'0',8,'')</v>
+        <v>insert into productos values(null,'Galleta ORQUIDEA x400gr','20',0,0,20,'0',9,'')</v>
       </c>
       <c r="J141" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Galleta ORQUIDEA x400gr','20',0,0,20,'0',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Galleta ORQUIDEA x400gr','20',0,0,20,'0',9,'')");</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75">
@@ -6791,15 +6791,15 @@
       </c>
       <c r="G142" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I142" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Galleta Surtida Don Paolo 350grs','14',0,365,26,'33',8,'')</v>
+        <v>insert into productos values(null,'Galleta Surtida Don Paolo 350grs','14',0,365,26,'33',9,'')</v>
       </c>
       <c r="J142" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Galleta Surtida Don Paolo 350grs','14',0,365,26,'33',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Galleta Surtida Don Paolo 350grs','14',0,365,26,'33',9,'')");</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.75">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="G143" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I143" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'GalletaPepasFatay350grs','16',0,560,35,'44',8,'')</v>
+        <v>insert into productos values(null,'GalletaPepasFatay350grs','16',0,560,35,'44',9,'')</v>
       </c>
       <c r="J143" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'GalletaPepasFatay350grs','16',0,560,35,'44',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'GalletaPepasFatay350grs','16',0,560,35,'44',9,'')");</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="31.5">
@@ -6855,15 +6855,15 @@
       </c>
       <c r="G144" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I144" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Galleta Chips Festiva 350gr Chispas ch','1',0,0,35,'44',8,'')</v>
+        <v>insert into productos values(null,'Galleta Chips Festiva 350gr Chispas ch','1',0,0,35,'44',9,'')</v>
       </c>
       <c r="J144" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Galleta Chips Festiva 350gr Chispas ch','1',0,0,35,'44',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Galleta Chips Festiva 350gr Chispas ch','1',0,0,35,'44',9,'')");</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.75">
@@ -6887,15 +6887,15 @@
       </c>
       <c r="G145" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I145" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Galleta Surtida Festiva 350gr','1',0,0,32,'0',8,'')</v>
+        <v>insert into productos values(null,'Galleta Surtida Festiva 350gr','1',0,0,32,'0',9,'')</v>
       </c>
       <c r="J145" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Galleta Surtida Festiva 350gr','1',0,0,32,'0',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Galleta Surtida Festiva 350gr','1',0,0,32,'0',9,'')");</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.75">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="G146" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I146" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'ZezePlantillas (Vainill, Choc, Limon)','18',0,530,33,'40',8,'')</v>
+        <v>insert into productos values(null,'ZezePlantillas (Vainill, Choc, Limon)','18',0,530,33,'40',9,'')</v>
       </c>
       <c r="J146" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'ZezePlantillas (Vainill, Choc, Limon)','18',0,530,33,'40',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'ZezePlantillas (Vainill, Choc, Limon)','18',0,530,33,'40',9,'')");</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15.75">
@@ -6951,15 +6951,15 @@
       </c>
       <c r="G147" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I147" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Zeze Luna (tipoPanina)','15',0,403,30,'38',8,'')</v>
+        <v>insert into productos values(null,'Zeze Luna (tipoPanina)','15',0,403,30,'38',9,'')</v>
       </c>
       <c r="J147" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Zeze Luna (tipoPanina)','15',0,403,30,'38',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Zeze Luna (tipoPanina)','15',0,403,30,'38',9,'')");</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.75">
@@ -6983,15 +6983,15 @@
       </c>
       <c r="G148" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I148" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Palitos ZABET ','40',0,548,15,'20',8,'')</v>
+        <v>insert into productos values(null,'Palitos ZABET ','40',0,548,15,'20',9,'')</v>
       </c>
       <c r="J148" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Palitos ZABET ','40',0,548,15,'20',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Palitos ZABET ','40',0,548,15,'20',9,'')");</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.75">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="G149" s="1">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I149" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Galletita NATIVO 80gr','1',0,0,16,'20',8,'')</v>
+        <v>insert into productos values(null,'Galletita NATIVO 80gr','1',0,0,16,'20',9,'')</v>
       </c>
       <c r="J149" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Galletita NATIVO 80gr','1',0,0,16,'20',8,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Galletita NATIVO 80gr','1',0,0,16,'20',9,'')");</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.75">
@@ -7047,15 +7047,15 @@
       </c>
       <c r="G150" s="1">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I150" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Jugo BIG C 250ml','27',0,283.5,10.5,'13',9,'')</v>
+        <v>insert into productos values(null,'Jugo BIG C 250ml','27',0,283.5,10.5,'13',10,'')</v>
       </c>
       <c r="J150" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Jugo BIG C 250ml','27',0,283.5,10.5,'13',9,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Jugo BIG C 250ml','27',0,283.5,10.5,'13',10,'')");</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15.75">
@@ -7079,15 +7079,15 @@
       </c>
       <c r="G151" s="1">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I151" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Jugo BIG C 1L','12',0,0,38,'46',9,'')</v>
+        <v>insert into productos values(null,'Jugo BIG C 1L','12',0,0,38,'46',10,'')</v>
       </c>
       <c r="J151" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Jugo BIG C 1L','12',0,0,38,'46',9,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Jugo BIG C 1L','12',0,0,38,'46',10,'')");</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15.75">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="G152" s="1">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I152" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'JugoRinde 2','20',0,235,11.75,'15',9,'')</v>
+        <v>insert into productos values(null,'JugoRinde 2','20',0,235,11.75,'15',10,'')</v>
       </c>
       <c r="J152" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'JugoRinde 2','20',0,235,11.75,'15',9,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'JugoRinde 2','20',0,235,11.75,'15',10,'')");</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15.75">
@@ -7143,15 +7143,15 @@
       </c>
       <c r="G153" s="1">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I153" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'JugoFoky','20',0,156,7.8,'10',9,'')</v>
+        <v>insert into productos values(null,'JugoFoky','20',0,156,7.8,'10',10,'')</v>
       </c>
       <c r="J153" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'JugoFoky','20',0,156,7.8,'10',9,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'JugoFoky','20',0,156,7.8,'10',10,'')");</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.75">
@@ -7175,15 +7175,15 @@
       </c>
       <c r="G154" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I154" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Perifar 400','8',0,0,30,'0',10,'')</v>
+        <v>insert into productos values(null,'Perifar 400','8',0,0,30,'0',11,'')</v>
       </c>
       <c r="J154" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Perifar 400','8',0,0,30,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Perifar 400','8',0,0,30,'0',11,'')");</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15.75">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="G155" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I155" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Perifar 600','8',0,0,40,'0',10,'')</v>
+        <v>insert into productos values(null,'Perifar 600','8',0,0,40,'0',11,'')</v>
       </c>
       <c r="J155" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Perifar 600','8',0,0,40,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Perifar 600','8',0,0,40,'0',11,'')");</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15.75">
@@ -7239,15 +7239,15 @@
       </c>
       <c r="G156" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I156" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Perifar Flex','8',0,0,56,'0',10,'')</v>
+        <v>insert into productos values(null,'Perifar Flex','8',0,0,56,'0',11,'')</v>
       </c>
       <c r="J156" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Perifar Flex','8',0,0,56,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Perifar Flex','8',0,0,56,'0',11,'')");</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15.75">
@@ -7271,15 +7271,15 @@
       </c>
       <c r="G157" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I157" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Perifar Niño','10',0,0,41,'0',10,'')</v>
+        <v>insert into productos values(null,'Perifar Niño','10',0,0,41,'0',11,'')</v>
       </c>
       <c r="J157" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Perifar Niño','10',0,0,41,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Perifar Niño','10',0,0,41,'0',11,'')");</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15.75">
@@ -7303,15 +7303,15 @@
       </c>
       <c r="G158" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I158" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Perifar Grip','8',0,0,61,'0',10,'')</v>
+        <v>insert into productos values(null,'Perifar Grip','8',0,0,61,'0',11,'')</v>
       </c>
       <c r="J158" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Perifar Grip','8',0,0,61,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Perifar Grip','8',0,0,61,'0',11,'')");</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15.75">
@@ -7335,15 +7335,15 @@
       </c>
       <c r="G159" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I159" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Perifar Fem','8',0,0,52,'0',10,'')</v>
+        <v>insert into productos values(null,'Perifar Fem','8',0,0,52,'0',11,'')</v>
       </c>
       <c r="J159" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Perifar Fem','8',0,0,52,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Perifar Fem','8',0,0,52,'0',11,'')");</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15.75">
@@ -7367,15 +7367,15 @@
       </c>
       <c r="G160" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I160" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'PerifarMigra','8',0,0,77,'0',10,'')</v>
+        <v>insert into productos values(null,'PerifarMigra','8',0,0,77,'0',11,'')</v>
       </c>
       <c r="J160" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'PerifarMigra','8',0,0,77,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'PerifarMigra','8',0,0,77,'0',11,'')");</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="15.75">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="G161" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I161" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'PerifarEspasmo','8',0,0,80,'0',10,'')</v>
+        <v>insert into productos values(null,'PerifarEspasmo','8',0,0,80,'0',11,'')</v>
       </c>
       <c r="J161" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'PerifarEspasmo','8',0,0,80,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'PerifarEspasmo','8',0,0,80,'0',11,'')");</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="15.75">
@@ -7431,15 +7431,15 @@
       </c>
       <c r="G162" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I162" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Perifar Grip Soluble','30',0,0,23,'0',10,'')</v>
+        <v>insert into productos values(null,'Perifar Grip Soluble','30',0,0,23,'0',11,'')</v>
       </c>
       <c r="J162" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Perifar Grip Soluble','30',0,0,23,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Perifar Grip Soluble','30',0,0,23,'0',11,'')");</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="15.75">
@@ -7463,15 +7463,15 @@
       </c>
       <c r="G163" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I163" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Perifar 600 C/Blanda','10',0,0,70,'0',10,'')</v>
+        <v>insert into productos values(null,'Perifar 600 C/Blanda','10',0,0,70,'0',11,'')</v>
       </c>
       <c r="J163" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Perifar 600 C/Blanda','10',0,0,70,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Perifar 600 C/Blanda','10',0,0,70,'0',11,'')");</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="15.75">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="G164" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I164" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Aspirina','10',0,0,30,'0',10,'')</v>
+        <v>insert into productos values(null,'Aspirina','10',0,0,30,'0',11,'')</v>
       </c>
       <c r="J164" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Aspirina','10',0,0,30,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Aspirina','10',0,0,30,'0',11,'')");</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="15.75">
@@ -7527,15 +7527,15 @@
       </c>
       <c r="G165" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I165" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Aspirina Fuerte','10',0,0,30,'0',10,'')</v>
+        <v>insert into productos values(null,'Aspirina Fuerte','10',0,0,30,'0',11,'')</v>
       </c>
       <c r="J165" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Aspirina Fuerte','10',0,0,30,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Aspirina Fuerte','10',0,0,30,'0',11,'')");</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="15.75">
@@ -7559,15 +7559,15 @@
       </c>
       <c r="G166" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I166" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Aspirina C','24',0,0,19.5,'0',10,'')</v>
+        <v>insert into productos values(null,'Aspirina C','24',0,0,19.5,'0',11,'')</v>
       </c>
       <c r="J166" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Aspirina C','24',0,0,19.5,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Aspirina C','24',0,0,19.5,'0',11,'')");</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="15.75">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="G167" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I167" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Aspirina CC','24',0,0,19.5,'0',10,'')</v>
+        <v>insert into productos values(null,'Aspirina CC','24',0,0,19.5,'0',11,'')</v>
       </c>
       <c r="J167" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Aspirina CC','24',0,0,19.5,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Aspirina CC','24',0,0,19.5,'0',11,'')");</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="15.75">
@@ -7623,15 +7623,15 @@
       </c>
       <c r="G168" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I168" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Aspirineta','7',0,0,35,'0',10,'')</v>
+        <v>insert into productos values(null,'Aspirineta','7',0,0,35,'0',11,'')</v>
       </c>
       <c r="J168" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Aspirineta','7',0,0,35,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Aspirineta','7',0,0,35,'0',11,'')");</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="15.75">
@@ -7655,15 +7655,15 @@
       </c>
       <c r="G169" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I169" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Cardioaspirina','5',0,0,49,'0',10,'')</v>
+        <v>insert into productos values(null,'Cardioaspirina','5',0,0,49,'0',11,'')</v>
       </c>
       <c r="J169" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Cardioaspirina','5',0,0,49,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Cardioaspirina','5',0,0,49,'0',11,'')");</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="15.75">
@@ -7687,15 +7687,15 @@
       </c>
       <c r="G170" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I170" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Zolben','8',0,0,39,'0',10,'')</v>
+        <v>insert into productos values(null,'Zolben','8',0,0,39,'0',11,'')</v>
       </c>
       <c r="J170" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Zolben','8',0,0,39,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Zolben','8',0,0,39,'0',11,'')");</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="15.75">
@@ -7719,15 +7719,15 @@
       </c>
       <c r="G171" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I171" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Novemina','25',0,0,29,'0',10,'')</v>
+        <v>insert into productos values(null,'Novemina','25',0,0,29,'0',11,'')</v>
       </c>
       <c r="J171" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Novemina','25',0,0,29,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Novemina','25',0,0,29,'0',11,'')");</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="15.75">
@@ -7751,15 +7751,15 @@
       </c>
       <c r="G172" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I172" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Novemina Flex','8',0,0,55,'0',10,'')</v>
+        <v>insert into productos values(null,'Novemina Flex','8',0,0,55,'0',11,'')</v>
       </c>
       <c r="J172" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Novemina Flex','8',0,0,55,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Novemina Flex','8',0,0,55,'0',11,'')");</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="15.75">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="G173" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I173" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Negatos','10',0,0,65,'0',10,'')</v>
+        <v>insert into productos values(null,'Negatos','10',0,0,65,'0',11,'')</v>
       </c>
       <c r="J173" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Negatos','10',0,0,65,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Negatos','10',0,0,65,'0',11,'')");</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="15.75">
@@ -7815,15 +7815,15 @@
       </c>
       <c r="G174" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I174" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Dorixina','10',0,0,72,'0',10,'')</v>
+        <v>insert into productos values(null,'Dorixina','10',0,0,72,'0',11,'')</v>
       </c>
       <c r="J174" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Dorixina','10',0,0,72,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Dorixina','10',0,0,72,'0',11,'')");</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="15.75">
@@ -7847,15 +7847,15 @@
       </c>
       <c r="G175" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I175" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Plidex','20',0,0,120,'0',10,'')</v>
+        <v>insert into productos values(null,'Plidex','20',0,0,120,'0',11,'')</v>
       </c>
       <c r="J175" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Plidex','20',0,0,120,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Plidex','20',0,0,120,'0',11,'')");</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="15.75">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="G176" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I176" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Sertal Compuesto','10',0,0,138,'0',10,'')</v>
+        <v>insert into productos values(null,'Sertal Compuesto','10',0,0,138,'0',11,'')</v>
       </c>
       <c r="J176" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Sertal Compuesto','10',0,0,138,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Sertal Compuesto','10',0,0,138,'0',11,'')");</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="15.75">
@@ -7911,15 +7911,15 @@
       </c>
       <c r="G177" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I177" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'BioGrip Soluble','1',0,0,21.5,'0',10,'')</v>
+        <v>insert into productos values(null,'BioGrip Soluble','1',0,0,21.5,'0',11,'')</v>
       </c>
       <c r="J177" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'BioGrip Soluble','1',0,0,21.5,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'BioGrip Soluble','1',0,0,21.5,'0',11,'')");</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="15.75">
@@ -7943,15 +7943,15 @@
       </c>
       <c r="G178" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I178" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Uvasal','12',0,0,9,'0',10,'')</v>
+        <v>insert into productos values(null,'Uvasal','12',0,0,9,'0',11,'')</v>
       </c>
       <c r="J178" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Uvasal','12',0,0,9,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Uvasal','12',0,0,9,'0',11,'')");</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="15.75">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="G179" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I179" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Alikal','12',0,130,11,'0',10,'')</v>
+        <v>insert into productos values(null,'Alikal','12',0,130,11,'0',11,'')</v>
       </c>
       <c r="J179" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Alikal','12',0,130,11,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Alikal','12',0,130,11,'0',11,'')");</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="15.75">
@@ -8007,15 +8007,15 @@
       </c>
       <c r="G180" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I180" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Yasta','24',0,276,12.5,'0',10,'')</v>
+        <v>insert into productos values(null,'Yasta','24',0,276,12.5,'0',11,'')</v>
       </c>
       <c r="J180" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Yasta','24',0,276,12.5,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Yasta','24',0,276,12.5,'0',11,'')");</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="15.75">
@@ -8039,15 +8039,15 @@
       </c>
       <c r="G181" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I181" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'ACF 4 Comprimido','8',0,0,53,'0',10,'')</v>
+        <v>insert into productos values(null,'ACF 4 Comprimido','8',0,0,53,'0',11,'')</v>
       </c>
       <c r="J181" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'ACF 4 Comprimido','8',0,0,53,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'ACF 4 Comprimido','8',0,0,53,'0',11,'')");</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="15.75">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="G182" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I182" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'ACF – C ','30',0,450,15,'0',10,'')</v>
+        <v>insert into productos values(null,'ACF – C ','30',0,450,15,'0',11,'')</v>
       </c>
       <c r="J182" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'ACF – C ','30',0,450,15,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'ACF – C ','30',0,450,15,'0',11,'')");</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="15.75">
@@ -8103,15 +8103,15 @@
       </c>
       <c r="G183" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I183" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Borweb','10',0,0,62,'0',10,'')</v>
+        <v>insert into productos values(null,'Borweb','10',0,0,62,'0',11,'')</v>
       </c>
       <c r="J183" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Borweb','10',0,0,62,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Borweb','10',0,0,62,'0',11,'')");</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="15.75">
@@ -8135,15 +8135,15 @@
       </c>
       <c r="G184" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I184" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Ernex','5',0,0,32,'0',10,'')</v>
+        <v>insert into productos values(null,'Ernex','5',0,0,32,'0',11,'')</v>
       </c>
       <c r="J184" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Ernex','5',0,0,32,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Ernex','5',0,0,32,'0',11,'')");</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="15.75">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="G185" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I185" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'IBUMIDOL rapidaaccion','10',0,0,54,'0',10,'')</v>
+        <v>insert into productos values(null,'IBUMIDOL rapidaaccion','10',0,0,54,'0',11,'')</v>
       </c>
       <c r="J185" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'IBUMIDOL rapidaaccion','10',0,0,54,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'IBUMIDOL rapidaaccion','10',0,0,54,'0',11,'')");</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="15.75">
@@ -8199,15 +8199,15 @@
       </c>
       <c r="G186" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I186" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'IBUMIDOL PLUS rapidaaccion','10',0,0,56,'0',10,'')</v>
+        <v>insert into productos values(null,'IBUMIDOL PLUS rapidaaccion','10',0,0,56,'0',11,'')</v>
       </c>
       <c r="J186" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'IBUMIDOL PLUS rapidaaccion','10',0,0,56,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'IBUMIDOL PLUS rapidaaccion','10',0,0,56,'0',11,'')");</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="15.75">
@@ -8231,15 +8231,15 @@
       </c>
       <c r="G187" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I187" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Actrón 200','10',0,0,36,'0',10,'')</v>
+        <v>insert into productos values(null,'Actrón 200','10',0,0,36,'0',11,'')</v>
       </c>
       <c r="J187" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Actrón 200','10',0,0,36,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Actrón 200','10',0,0,36,'0',11,'')");</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="15.75">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="G188" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I188" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Actrón 400','10',0,0,55,'0',10,'')</v>
+        <v>insert into productos values(null,'Actrón 400','10',0,0,55,'0',11,'')</v>
       </c>
       <c r="J188" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Actrón 400','10',0,0,55,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Actrón 400','10',0,0,55,'0',11,'')");</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="15.75">
@@ -8295,15 +8295,15 @@
       </c>
       <c r="G189" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I189" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Actrón 600','10',0,0,87,'0',10,'')</v>
+        <v>insert into productos values(null,'Actrón 600','10',0,0,87,'0',11,'')</v>
       </c>
       <c r="J189" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Actrón 600','10',0,0,87,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Actrón 600','10',0,0,87,'0',11,'')");</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="15.75">
@@ -8327,15 +8327,15 @@
       </c>
       <c r="G190" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I190" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Omeprazol','6',0,0,45,'0',10,'')</v>
+        <v>insert into productos values(null,'Omeprazol','6',0,0,45,'0',11,'')</v>
       </c>
       <c r="J190" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Omeprazol','6',0,0,45,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Omeprazol','6',0,0,45,'0',11,'')");</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="15.75">
@@ -8359,15 +8359,15 @@
       </c>
       <c r="G191" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I191" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Omepracid','10',0,0,80,'0',10,'')</v>
+        <v>insert into productos values(null,'Omepracid','10',0,0,80,'0',11,'')</v>
       </c>
       <c r="J191" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Omepracid','10',0,0,80,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Omepracid','10',0,0,80,'0',11,'')");</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="15.75">
@@ -8391,15 +8391,15 @@
       </c>
       <c r="G192" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I192" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Tabcin Caliente','20',0,0,20.5,'0',10,'')</v>
+        <v>insert into productos values(null,'Tabcin Caliente','20',0,0,20.5,'0',11,'')</v>
       </c>
       <c r="J192" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Tabcin Caliente','20',0,0,20.5,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Tabcin Caliente','20',0,0,20.5,'0',11,'')");</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="15.75">
@@ -8423,15 +8423,15 @@
       </c>
       <c r="G193" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I193" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Bisal','25',0,0,30,'0',10,'')</v>
+        <v>insert into productos values(null,'Bisal','25',0,0,30,'0',11,'')</v>
       </c>
       <c r="J193" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Bisal','25',0,0,30,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Bisal','25',0,0,30,'0',11,'')");</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="15.75">
@@ -8455,15 +8455,15 @@
       </c>
       <c r="G194" s="1">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I194" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>insert into productos values(null,'Dolex (Paracetamol 650mg)','8',0,0,32,'0',10,'')</v>
+        <v>insert into productos values(null,'Dolex (Paracetamol 650mg)','8',0,0,32,'0',11,'')</v>
       </c>
       <c r="J194" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>db.execSQL("insert into productos values(null,'Dolex (Paracetamol 650mg)','8',0,0,32,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Dolex (Paracetamol 650mg)','8',0,0,32,'0',11,'')");</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="15.75">
@@ -8486,16 +8486,16 @@
         <v>240</v>
       </c>
       <c r="G195" s="1">
-        <f t="shared" ref="G195:G216" si="9">IF(F195="Caramelos",1,IF(F195="Chicles",2,IF(F195="Chupetines",3,IF(F195="Pastillas",4,IF(F195="Gomas",4,IF(F195="Alfajores",5,IF(F195="Chocolates",6, IF(F195="Varios",7,IF(F195="Galletitas",8,IF(F195="Jugos",9,IF(F195="Farmacia",10,IF(F195="Urulat",11,IF(F195="Condimentos",12,-1)))))))))))))</f>
-        <v>10</v>
+        <f t="shared" ref="G195:G216" si="9">IF(F195="Caramelos",1,IF(F195="Chicles",2,IF(F195="Chupetines",3,IF(F195="Pastillas",4,IF(F195="Gomas",5,IF(F195="Alfajores",6,IF(F195="Chocolates",7, IF(F195="Varios",8,IF(F195="Galletitas",9,IF(F195="Jugos",10,IF(F195="Farmacia",11,IF(F195="Urulat",12,IF(F195="Condimentos",13,-1)))))))))))))</f>
+        <v>11</v>
       </c>
       <c r="I195" s="1" t="str">
         <f t="shared" ref="I195:I216" si="10">CONCATENATE("insert into productos values(null,'",A195,   "','",     B195,    "',",     0,   ",",   C195,    ",",   D195,   ",'",     E195, "',",G195,",","'",H195,  "')"     )</f>
-        <v>insert into productos values(null,'Sinutabcomp.','12',0,0,90,'0',10,'')</v>
+        <v>insert into productos values(null,'Sinutabcomp.','12',0,0,90,'0',11,'')</v>
       </c>
       <c r="J195" s="1" t="str">
         <f t="shared" ref="J195:J216" si="11">CONCATENATE("db.execSQL(""",I195,""");")</f>
-        <v>db.execSQL("insert into productos values(null,'Sinutabcomp.','12',0,0,90,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Sinutabcomp.','12',0,0,90,'0',11,'')");</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="15.75">
@@ -8517,15 +8517,15 @@
       </c>
       <c r="G196" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I196" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'','1',0,0,0,'0',10,'')</v>
+        <v>insert into productos values(null,'','1',0,0,0,'0',11,'')</v>
       </c>
       <c r="J196" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'','1',0,0,0,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'','1',0,0,0,'0',11,'')");</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="15.75">
@@ -8549,15 +8549,15 @@
       </c>
       <c r="G197" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I197" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'PANTENE shamp y acond. (tira)','24',0,98,4.08,'0',10,'')</v>
+        <v>insert into productos values(null,'PANTENE shamp y acond. (tira)','24',0,98,4.08,'0',11,'')</v>
       </c>
       <c r="J197" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'PANTENE shamp y acond. (tira)','24',0,98,4.08,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'PANTENE shamp y acond. (tira)','24',0,98,4.08,'0',11,'')");</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="15.75">
@@ -8581,15 +8581,15 @@
       </c>
       <c r="G198" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I198" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Head and Shoulder´s ','24',0,98,4.08,'6',10,'')</v>
+        <v>insert into productos values(null,'Head and Shoulder´s ','24',0,98,4.08,'6',11,'')</v>
       </c>
       <c r="J198" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Head and Shoulder´s ','24',0,98,4.08,'6',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Head and Shoulder´s ','24',0,98,4.08,'6',11,'')");</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15.75">
@@ -8613,15 +8613,15 @@
       </c>
       <c r="G199" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I199" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Pañuelo Elite','10',0,58,5.8,'8',10,'')</v>
+        <v>insert into productos values(null,'Pañuelo Elite','10',0,58,5.8,'8',11,'')</v>
       </c>
       <c r="J199" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Pañuelo Elite','10',0,58,5.8,'8',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Pañuelo Elite','10',0,58,5.8,'8',11,'')");</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15.75">
@@ -8645,15 +8645,15 @@
       </c>
       <c r="G200" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I200" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Curitas Ready-PLAST','80',0,130,1.63,'2',10,'')</v>
+        <v>insert into productos values(null,'Curitas Ready-PLAST','80',0,130,1.63,'2',11,'')</v>
       </c>
       <c r="J200" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Curitas Ready-PLAST','80',0,130,1.63,'2',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Curitas Ready-PLAST','80',0,130,1.63,'2',11,'')");</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15.75">
@@ -8677,15 +8677,15 @@
       </c>
       <c r="G201" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I201" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Azufre','50',0,96,1.92,'3',10,'')</v>
+        <v>insert into productos values(null,'Azufre','50',0,96,1.92,'3',11,'')</v>
       </c>
       <c r="J201" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Azufre','50',0,96,1.92,'3',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Azufre','50',0,96,1.92,'3',11,'')");</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="15.75">
@@ -8709,15 +8709,15 @@
       </c>
       <c r="G202" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I202" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Des. Speed Stick mini (HyM)','6',0,186,31,'39',10,'')</v>
+        <v>insert into productos values(null,'Des. Speed Stick mini (HyM)','6',0,186,31,'39',11,'')</v>
       </c>
       <c r="J202" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Des. Speed Stick mini (HyM)','6',0,186,31,'39',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Des. Speed Stick mini (HyM)','6',0,186,31,'39',11,'')");</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15.75">
@@ -8741,15 +8741,15 @@
       </c>
       <c r="G203" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I203" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Prestobarbaazul x24+4A','28',0,693,24.75,'0',10,'')</v>
+        <v>insert into productos values(null,'Prestobarbaazul x24+4A','28',0,693,24.75,'0',11,'')</v>
       </c>
       <c r="J203" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Prestobarbaazul x24+4A','28',0,693,24.75,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Prestobarbaazul x24+4A','28',0,693,24.75,'0',11,'')");</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15.75">
@@ -8773,15 +8773,15 @@
       </c>
       <c r="G204" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I204" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Prestobarba triple hoja 10+2','12',0,450,37.5,'0',10,'')</v>
+        <v>insert into productos values(null,'Prestobarba triple hoja 10+2','12',0,450,37.5,'0',11,'')</v>
       </c>
       <c r="J204" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Prestobarba triple hoja 10+2','12',0,450,37.5,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Prestobarba triple hoja 10+2','12',0,450,37.5,'0',11,'')");</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15.75">
@@ -8805,15 +8805,15 @@
       </c>
       <c r="G205" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I205" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Shick Exacta','1',0,0,18,'0',10,'')</v>
+        <v>insert into productos values(null,'Shick Exacta','1',0,0,18,'0',11,'')</v>
       </c>
       <c r="J205" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Shick Exacta','1',0,0,18,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Shick Exacta','1',0,0,18,'0',11,'')");</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15.75">
@@ -8837,15 +8837,15 @@
       </c>
       <c r="G206" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I206" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Jabón de tocador SENSUS','1',0,0,14.6,'0',10,'')</v>
+        <v>insert into productos values(null,'Jabón de tocador SENSUS','1',0,0,14.6,'0',11,'')</v>
       </c>
       <c r="J206" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Jabón de tocador SENSUS','1',0,0,14.6,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Jabón de tocador SENSUS','1',0,0,14.6,'0',11,'')");</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="15.75">
@@ -8869,15 +8869,15 @@
       </c>
       <c r="G207" s="1">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I207" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Jabón de tocador ASTRAL','1',0,0,19,'0',10,'')</v>
+        <v>insert into productos values(null,'Jabón de tocador ASTRAL','1',0,0,19,'0',11,'')</v>
       </c>
       <c r="J207" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Jabón de tocador ASTRAL','1',0,0,19,'0',10,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Jabón de tocador ASTRAL','1',0,0,19,'0',11,'')");</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15.75">
@@ -8901,15 +8901,15 @@
       </c>
       <c r="G208" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I208" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Dulce ½ kg','1',0,0,38,'46',11,'')</v>
+        <v>insert into productos values(null,'Dulce ½ kg','1',0,0,38,'46',12,'')</v>
       </c>
       <c r="J208" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Dulce ½ kg','1',0,0,38,'46',11,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Dulce ½ kg','1',0,0,38,'46',12,'')");</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="15.75">
@@ -8933,15 +8933,15 @@
       </c>
       <c r="G209" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I209" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Dulce 1 kg','1',0,0,66,'79',11,'')</v>
+        <v>insert into productos values(null,'Dulce 1 kg','1',0,0,66,'79',12,'')</v>
       </c>
       <c r="J209" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Dulce 1 kg','1',0,0,66,'79',11,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Dulce 1 kg','1',0,0,66,'79',12,'')");</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15.75">
@@ -8965,18 +8965,18 @@
       </c>
       <c r="G210" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H210" s="7" t="s">
         <v>352</v>
       </c>
       <c r="I210" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Dulce 3 ½ kg','1',0,0,205,'70 el kg',11,'p. unit. 54.4/k')</v>
+        <v>insert into productos values(null,'Dulce 3 ½ kg','1',0,0,205,'70 el kg',12,'p. unit. 54.4/k')</v>
       </c>
       <c r="J210" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Dulce 3 ½ kg','1',0,0,205,'70 el kg',11,'p. unit. 54.4/k')");</v>
+        <v>db.execSQL("insert into productos values(null,'Dulce 3 ½ kg','1',0,0,205,'70 el kg',12,'p. unit. 54.4/k')");</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="15.75">
@@ -9000,18 +9000,18 @@
       </c>
       <c r="G211" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H211" s="7" t="s">
         <v>353</v>
       </c>
       <c r="I211" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Dulce 5 kg','1',0,0,290,'70 el kg',11,'p. unit. 58/k')</v>
+        <v>insert into productos values(null,'Dulce 5 kg','1',0,0,290,'70 el kg',12,'p. unit. 58/k')</v>
       </c>
       <c r="J211" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Dulce 5 kg','1',0,0,290,'70 el kg',11,'p. unit. 58/k')");</v>
+        <v>db.execSQL("insert into productos values(null,'Dulce 5 kg','1',0,0,290,'70 el kg',12,'p. unit. 58/k')");</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="15.75">
@@ -9035,18 +9035,18 @@
       </c>
       <c r="G212" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>354</v>
       </c>
       <c r="I212" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Dulce REPOSTERO','1',0,0,300,'75 el kg',11,'p. unit. 60/k')</v>
+        <v>insert into productos values(null,'Dulce REPOSTERO','1',0,0,300,'75 el kg',12,'p. unit. 60/k')</v>
       </c>
       <c r="J212" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Dulce REPOSTERO','1',0,0,300,'75 el kg',11,'p. unit. 60/k')");</v>
+        <v>db.execSQL("insert into productos values(null,'Dulce REPOSTERO','1',0,0,300,'75 el kg',12,'p. unit. 60/k')");</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="15.75">
@@ -9070,15 +9070,15 @@
       </c>
       <c r="G213" s="1">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I213" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Muzzarella (4kg aprox.)','1',0,0,168,'22',11,'')</v>
+        <v>insert into productos values(null,'Muzzarella (4kg aprox.)','1',0,0,168,'22',12,'')</v>
       </c>
       <c r="J213" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Muzzarella (4kg aprox.)','1',0,0,168,'22',11,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Muzzarella (4kg aprox.)','1',0,0,168,'22',12,'')");</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="15.75">
@@ -9102,15 +9102,15 @@
       </c>
       <c r="G214" s="1">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I214" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Oregano','1 kg.',0,194,0,'0',12,'')</v>
+        <v>insert into productos values(null,'Oregano','1 kg.',0,194,0,'0',13,'')</v>
       </c>
       <c r="J214" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Oregano','1 kg.',0,194,0,'0',12,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Oregano','1 kg.',0,194,0,'0',13,'')");</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="15.75">
@@ -9134,15 +9134,15 @@
       </c>
       <c r="G215" s="1">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I215" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Adobo','1 kg.',0,155,0,'0',12,'')</v>
+        <v>insert into productos values(null,'Adobo','1 kg.',0,155,0,'0',13,'')</v>
       </c>
       <c r="J215" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Adobo','1 kg.',0,155,0,'0',12,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Adobo','1 kg.',0,155,0,'0',13,'')");</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="15.75">
@@ -9166,15 +9166,15 @@
       </c>
       <c r="G216" s="1">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I216" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>insert into productos values(null,'Ajo y Perejil','1 kg.',0,185,0,'0',12,'')</v>
+        <v>insert into productos values(null,'Ajo y Perejil','1 kg.',0,185,0,'0',13,'')</v>
       </c>
       <c r="J216" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>db.execSQL("insert into productos values(null,'Ajo y Perejil','1 kg.',0,185,0,'0',12,'')");</v>
+        <v>db.execSQL("insert into productos values(null,'Ajo y Perejil','1 kg.',0,185,0,'0',13,'')");</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="18.75">
@@ -9194,1080 +9194,1077 @@
       <c r="F218" s="3"/>
     </row>
     <row r="219" spans="1:10" ht="18.75">
-      <c r="A219" s="5"/>
+      <c r="A219" s="5" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="220" spans="1:10" ht="18.75">
       <c r="A220" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="18.75">
       <c r="A221" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="18.75">
       <c r="A222" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="18.75">
       <c r="A223" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="18.75">
       <c r="A224" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="18.75">
       <c r="A225" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="18.75">
       <c r="A226" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="18.75">
       <c r="A227" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="18.75">
       <c r="A228" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="18.75">
       <c r="A229" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="18.75">
       <c r="A230" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="18.75">
       <c r="A231" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="18.75">
       <c r="A232" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="18.75">
       <c r="A233" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="18.75">
       <c r="A234" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="18.75">
       <c r="A235" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="18.75">
       <c r="A236" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="18.75">
       <c r="A237" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" s="1" t="s">
         <v>569</v>
       </c>
     </row>
